--- a/experiments/results.xlsx
+++ b/experiments/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilana\PycharmProjects\Neural_Interaction_Detection\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\PycharmProjects\current\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2F3B9A-145A-46E9-9A0F-3D7AD585B458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77264E9D-BFA7-40C3-B77D-A411D85D3AFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{AB1890BE-3AD9-40E3-8A77-F51DCCE4E7BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AB1890BE-3AD9-40E3-8A77-F51DCCE4E7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Letters" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="21">
   <si>
     <t>MI - score</t>
   </si>
@@ -83,20 +83,38 @@
   <si>
     <t>is NID &lt; MI</t>
   </si>
+  <si>
+    <t>SQRT calc</t>
+  </si>
+  <si>
+    <t>Z-alpha</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>acc -val</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -110,7 +128,7 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -119,12 +137,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,14 +233,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -229,17 +253,34 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -299,7 +340,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -829,7 +870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601779512"/>
@@ -889,7 +930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601779184"/>
@@ -931,7 +972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -961,7 +1002,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1012,7 +1053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1028,7 +1069,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Multi letters'!$Z$2:$Z$3</c:f>
+              <c:f>'Multi letters'!$AU$2:$AU$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1052,7 +1093,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Multi letters'!$V$4:$V$19</c:f>
+              <c:f>'Multi letters'!$AQ$4:$AQ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1109,7 +1150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Multi letters'!$Z$4:$Z$19</c:f>
+              <c:f>'Multi letters'!$AU$4:$AU$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1175,7 +1216,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Multi letters'!$AA$2:$AA$3</c:f>
+              <c:f>'Multi letters'!$AV$2:$AV$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1199,7 +1240,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Multi letters'!$V$4:$V$19</c:f>
+              <c:f>'Multi letters'!$AQ$4:$AQ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1256,7 +1297,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Multi letters'!$AA$4:$AA$19</c:f>
+              <c:f>'Multi letters'!$AV$4:$AV$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1371,7 +1412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508915568"/>
@@ -1431,7 +1472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508908024"/>
@@ -1473,7 +1514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1503,7 +1544,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1554,7 +1595,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1865,7 +1906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516145376"/>
@@ -1925,7 +1966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516142752"/>
@@ -1967,7 +2008,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1997,7 +2038,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2048,7 +2089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2359,7 +2400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1143311480"/>
@@ -2419,7 +2460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1143304592"/>
@@ -2461,7 +2502,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2491,7 +2532,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2542,7 +2583,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2558,7 +2599,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bike!$Q$2:$Q$3</c:f>
+              <c:f>Bike!$W$2:$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2582,7 +2623,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Bike!$P$4:$P$15</c:f>
+              <c:f>Bike!$V$4:$V$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2627,7 +2668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bike!$Q$4:$Q$15</c:f>
+              <c:f>Bike!$W$4:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2681,7 +2722,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bike!$R$2:$R$3</c:f>
+              <c:f>Bike!$X$2:$X$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2705,7 +2746,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Bike!$P$4:$P$15</c:f>
+              <c:f>Bike!$V$4:$V$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2750,7 +2791,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bike!$R$4:$R$15</c:f>
+              <c:f>Bike!$X$4:$X$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2853,7 +2894,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="908895496"/>
@@ -2913,7 +2954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="908895824"/>
@@ -2955,7 +2996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2985,7 +3026,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3036,7 +3077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3327,7 +3368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516145376"/>
@@ -3387,7 +3428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516142752"/>
@@ -3429,7 +3470,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3459,7 +3500,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3510,7 +3551,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3526,7 +3567,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cal housing'!$L$2:$L$3</c:f>
+              <c:f>'Cal housing'!$P$2:$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3561,30 +3602,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3599,32 +3616,8 @@
               </c:extLst>
               <c:f>'Cal housing'!$L$4:$L$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.083081856</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76429848300000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65783863799999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94857614800000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70201908599999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82543283700000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82055904099999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87793139899999995</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3639,7 +3632,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cal housing'!$M$2:$M$3</c:f>
+              <c:f>'Cal housing'!$Q$2:$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3674,30 +3667,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3712,32 +3681,8 @@
               </c:extLst>
               <c:f>'Cal housing'!$M$4:$M$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.083081856</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91153136899999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0542263080000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.064571763</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0563180160000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.84157454899999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62845552599999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81407595600000004</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3801,7 +3746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1143311480"/>
@@ -3833,7 +3778,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3861,7 +3806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1143304592"/>
@@ -3903,7 +3848,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3933,7 +3878,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3984,7 +3929,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3995,232 +3940,6 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cal housing'!$Q$2:$Q$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>rmse</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$P$4:$P$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$P$4:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$Q$4:$Q$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$Q$4:$Q$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.96400794700000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69532535699999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61906000800000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61625295000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59952943800000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60050652699999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59095626599999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57415418900000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DDB-463E-890D-C9001672AEED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cal housing'!$R$2:$R$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>rmse</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$P$4:$P$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$P$4:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$R$4:$R$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$R$4:$R$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.96400794706734805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82125682231167396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82391279212434898</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80229109250299102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70026186546870695</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70475972126934405</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57906447013863505</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57416537263621503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DDB-463E-890D-C9001672AEED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4233,6 +3952,164 @@
         <c:overlap val="-27"/>
         <c:axId val="908895824"/>
         <c:axId val="908895496"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Cal housing'!$V$2:$V$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>rmse</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>MI</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Cal housing'!$P$12:$P$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Cal housing'!$Q$12:$Q$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6DDB-463E-890D-C9001672AEED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Cal housing'!$W$2:$W$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>rmse</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>NID</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Cal housing'!$P$12:$P$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Cal housing'!$R$12:$R$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6DDB-463E-890D-C9001672AEED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="908895824"/>
@@ -4275,7 +4152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="908895496"/>
@@ -4335,7 +4212,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="908895824"/>
@@ -4377,7 +4254,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4407,7 +4284,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4458,7 +4335,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4988,7 +4865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="407849800"/>
@@ -5048,7 +4925,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="407850456"/>
@@ -5090,7 +4967,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5120,7 +4997,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5171,7 +5048,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5187,7 +5064,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters'!$O$2:$O$3</c:f>
+              <c:f>'Binary Letters'!$AA$2:$AA$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5211,7 +5088,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters'!$N$4:$N$19</c:f>
+              <c:f>'Binary Letters'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5268,7 +5145,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters'!$O$4:$O$19</c:f>
+              <c:f>'Binary Letters'!$AA$4:$AA$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5334,7 +5211,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters'!$P$2:$P$3</c:f>
+              <c:f>'Binary Letters'!$AB$2:$AB$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5358,7 +5235,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters'!$N$4:$N$19</c:f>
+              <c:f>'Binary Letters'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5415,7 +5292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters'!$P$4:$P$19</c:f>
+              <c:f>'Binary Letters'!$AB$4:$AB$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5530,7 +5407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408240088"/>
@@ -5591,7 +5468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408244024"/>
@@ -5633,7 +5510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5663,7 +5540,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5714,7 +5591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5730,7 +5607,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters'!$R$2:$R$3</c:f>
+              <c:f>'Binary Letters'!$AD$2:$AD$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5754,7 +5631,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters'!$N$4:$N$19</c:f>
+              <c:f>'Binary Letters'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5811,7 +5688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters'!$R$4:$R$19</c:f>
+              <c:f>'Binary Letters'!$AD$4:$AD$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5877,7 +5754,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters'!$S$2:$S$3</c:f>
+              <c:f>'Binary Letters'!$AE$2:$AE$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5901,7 +5778,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters'!$N$4:$N$19</c:f>
+              <c:f>'Binary Letters'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5958,7 +5835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters'!$S$4:$S$19</c:f>
+              <c:f>'Binary Letters'!$AE$4:$AE$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6073,7 +5950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="579947040"/>
@@ -6134,7 +6011,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="579949664"/>
@@ -6176,7 +6053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6206,7 +6083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6282,7 +6159,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6641,7 +6518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1124984480"/>
@@ -6702,7 +6579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1124983168"/>
@@ -6744,7 +6621,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6774,7 +6651,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6850,7 +6727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7209,7 +7086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408246976"/>
@@ -7269,7 +7146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408255504"/>
@@ -7311,7 +7188,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7341,7 +7218,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7417,7 +7294,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7776,7 +7653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408244680"/>
@@ -7835,7 +7712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408238120"/>
@@ -7877,7 +7754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7907,7 +7784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7983,7 +7860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8342,7 +8219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601782464"/>
@@ -8402,7 +8279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601782136"/>
@@ -8444,7 +8321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8474,7 +8351,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8525,7 +8402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8541,7 +8418,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Multi letters'!$W$2:$W$3</c:f>
+              <c:f>'Multi letters'!$AR$2:$AR$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8565,7 +8442,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Multi letters'!$V$4:$V$19</c:f>
+              <c:f>'Multi letters'!$AQ$4:$AQ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8622,7 +8499,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Multi letters'!$W$4:$W$19</c:f>
+              <c:f>'Multi letters'!$AR$4:$AR$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8688,7 +8565,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Multi letters'!$X$2:$X$3</c:f>
+              <c:f>'Multi letters'!$AS$2:$AS$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8712,7 +8589,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Multi letters'!$V$4:$V$19</c:f>
+              <c:f>'Multi letters'!$AQ$4:$AQ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8769,7 +8646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Multi letters'!$X$4:$X$19</c:f>
+              <c:f>'Multi letters'!$AS$4:$AS$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8884,7 +8761,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875782728"/>
@@ -8943,7 +8820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875782072"/>
@@ -8985,7 +8862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9015,7 +8892,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17790,13 +17667,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -17826,13 +17703,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -18160,13 +18037,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -18613,21 +18490,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD96269-3030-4528-9946-FFE0F4ACC6A9}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W19" activeCellId="1" sqref="Z19 W19"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BC23" sqref="BC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -18641,36 +18519,33 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="V1" s="15" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AT1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -18684,48 +18559,89 @@
         <v>13</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="5" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="S2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="Z2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="V2" s="5" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AM2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AT2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AU2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="7" t="s">
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BG2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -18739,7 +18655,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -18758,47 +18674,145 @@
       <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="1" t="s">
+      <c r="AG3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="BA3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK3" s="28" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -18834,54 +18848,183 @@
         <f>K4&gt;=J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="2">
+      <c r="M4">
+        <f>SQRT( (G4*(1-G4)/20000) + (H4*(1-H4)/20000) )</f>
+        <v>4.816106661505744E-3</v>
+      </c>
+      <c r="N4" s="8">
+        <f>G4-H4</f>
+        <v>9.3949999999999978E-2</v>
+      </c>
+      <c r="O4">
+        <f>N4-(R4*M4)</f>
+        <v>8.6027504541823036E-2</v>
+      </c>
+      <c r="P4">
+        <f>N4+(R4*M4)</f>
+        <v>0.10187249545817692</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(AND(N4&gt;O4,N4&lt;P4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="R4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S4">
+        <f>SQRT( (J4*(1-J4)/20000) + (K4*(1-K4)/20000) )</f>
+        <v>4.8360940099186891E-3</v>
+      </c>
+      <c r="T4" s="8">
+        <f>J4-K4</f>
+        <v>9.5143343756311061E-2</v>
+      </c>
+      <c r="U4">
+        <f>T4-(R4*S4)</f>
+        <v>8.7187969109994823E-2</v>
+      </c>
+      <c r="V4">
+        <f>T4+(R4*S4)</f>
+        <v>0.1030987184026273</v>
+      </c>
+      <c r="W4" t="str">
+        <f>IF(AND(T4&gt;U4,T4&lt;V4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="Z4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="10">
+      <c r="AA4" s="10">
         <v>0.63884999999999903</v>
       </c>
-      <c r="P4" s="10">
+      <c r="AB4" s="10">
         <v>0.54654999999999998</v>
       </c>
-      <c r="Q4" s="2" t="b">
-        <f>P4&gt;=O4</f>
+      <c r="AC4" s="2" t="b">
+        <f>AB4&gt;=AA4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="10">
+      <c r="AD4" s="10">
         <v>0.62615858380613099</v>
       </c>
-      <c r="S4" s="10">
+      <c r="AE4" s="10">
         <v>0.54081711789736797</v>
       </c>
-      <c r="T4" t="b">
-        <f>S4&gt;=R4</f>
+      <c r="AF4" t="b">
+        <f>AE4&gt;=AD4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AG4">
+        <f>SQRT( (AA4*(1-AA4)/20000) + (AB4*(1-AB4)/20000) )</f>
+        <v>4.8915936820222517E-3</v>
+      </c>
+      <c r="AH4" s="8">
+        <f>AA4-AB4</f>
+        <v>9.2299999999999049E-2</v>
+      </c>
+      <c r="AI4">
+        <f>AH4-(AL4*AG4)</f>
+        <v>8.4253328393072452E-2</v>
+      </c>
+      <c r="AJ4">
+        <f>AH4+(AL4*AG4)</f>
+        <v>0.10034667160692565</v>
+      </c>
+      <c r="AK4" t="str">
+        <f>IF(AND(AH4&gt;AI4,AH4&lt;AJ4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AL4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM4">
+        <f>SQRT( (AD4*(1-AD4)/20000) + (AE4*(1-AE4)/20000) )</f>
+        <v>4.9113031601530346E-3</v>
+      </c>
+      <c r="AN4" s="8">
+        <f>AD4-AE4</f>
+        <v>8.5341465908763015E-2</v>
+      </c>
+      <c r="AO4">
+        <f>AN4-(AL4*AM4)</f>
+        <v>7.7262372210311278E-2</v>
+      </c>
+      <c r="AP4">
+        <f>AN4+(AL4*AM4)</f>
+        <v>9.3420559607214751E-2</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f>IF(AND(AN4&gt;AO4,AN4&lt;AP4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AT4" s="2">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="AU4">
         <v>0.67284999999999995</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AV4" s="2">
         <v>0.57894999999999996</v>
       </c>
-      <c r="Y4" s="2" t="b">
-        <f>X4&gt;=W4</f>
+      <c r="AW4" s="2" t="b">
+        <f>AV4&gt;=AU4</f>
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="AX4">
         <v>0.66529543034263405</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AY4" s="2">
         <v>0.57015203628810496</v>
       </c>
-      <c r="AB4" s="2" t="b">
-        <f>AA4&gt;=Z4</f>
+      <c r="AZ4" s="2" t="b">
+        <f>AY4&gt;=AX4</f>
         <v>0</v>
       </c>
+      <c r="BA4">
+        <f>SQRT( (AU4*(1-AU4)/20000) + (AV4*(1-AV4)/20000) )</f>
+        <v>4.8160656920353566E-3</v>
+      </c>
+      <c r="BB4" s="8">
+        <f>AU4-AV4</f>
+        <v>9.3899999999999983E-2</v>
+      </c>
+      <c r="BC4">
+        <f>BB4-(BF4*BA4)</f>
+        <v>8.5977571936601827E-2</v>
+      </c>
+      <c r="BD4">
+        <f>BB4+(BF4*BA4)</f>
+        <v>0.10182242806339814</v>
+      </c>
+      <c r="BE4" t="str">
+        <f>IF(AND(BB4&gt;BC4,BB4&lt;BD4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BF4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG4">
+        <f>SQRT( (AX4*(1-AX4)/20000) + (AY4*(1-AY4)/20000) )</f>
+        <v>4.8360940463998206E-3</v>
+      </c>
+      <c r="BH4" s="8">
+        <f>AX4-AY4</f>
+        <v>9.5143394054529096E-2</v>
+      </c>
+      <c r="BI4">
+        <f>BH4-(BF4*BG4)</f>
+        <v>8.718801934820139E-2</v>
+      </c>
+      <c r="BJ4">
+        <f>BH4+(BF4*BG4)</f>
+        <v>0.1030987687608568</v>
+      </c>
+      <c r="BK4" t="str">
+        <f>IF(AND(BH4&gt;BI4,BH4&lt;BJ4),"T","F")</f>
+        <v>T</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -18917,54 +19060,183 @@
         <f t="shared" ref="L5:L19" si="1">K5&gt;=J5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="2">
+      <c r="M5">
+        <f>SQRT( (G5*(1-G5)/20000) + (H5*(1-H5)/20000) )</f>
+        <v>4.707574786978962E-3</v>
+      </c>
+      <c r="N5" s="8">
+        <f>G5-H5</f>
+        <v>3.7749999999999062E-2</v>
+      </c>
+      <c r="O5">
+        <f>N5-(R5*M5)</f>
+        <v>3.0006039475418668E-2</v>
+      </c>
+      <c r="P5">
+        <f>N5+(R5*M5)</f>
+        <v>4.5493960524579456E-2</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(AND(N5&gt;O5,N5&lt;P5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="R5" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S5">
+        <f>SQRT( (J5*(1-J5)/20000) + (K5*(1-K5)/20000) )</f>
+        <v>4.7381370931229572E-3</v>
+      </c>
+      <c r="T5" s="8">
+        <f>J5-K5</f>
+        <v>2.7486257640176981E-2</v>
+      </c>
+      <c r="U5">
+        <f>T5-(R5*S5)</f>
+        <v>1.9692022121989717E-2</v>
+      </c>
+      <c r="V5">
+        <f>T5+(R5*S5)</f>
+        <v>3.5280493158364248E-2</v>
+      </c>
+      <c r="W5" t="str">
+        <f>IF(AND(T5&gt;U5,T5&lt;V5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="Z5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="10">
+      <c r="AA5" s="10">
         <v>0.63014999999999999</v>
       </c>
-      <c r="P5" s="10">
+      <c r="AB5" s="10">
         <v>0.59260000000000002</v>
       </c>
-      <c r="Q5" s="2" t="b">
-        <f>P5&gt;=O5</f>
+      <c r="AC5" s="2" t="b">
+        <f>AB5&gt;=AA5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="10">
+      <c r="AD5" s="10">
         <v>0.62599803312549396</v>
       </c>
-      <c r="S5" s="10">
+      <c r="AE5" s="10">
         <v>0.59001240124993004</v>
       </c>
-      <c r="T5" t="b">
-        <f t="shared" ref="T5:T19" si="2">S5&gt;=R5</f>
+      <c r="AF5" t="b">
+        <f>AE5&gt;=AD5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="2">
+      <c r="AG5">
+        <f>SQRT( (AA5*(1-AA5)/20000) + (AB5*(1-AB5)/20000) )</f>
+        <v>4.8707608106947726E-3</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>AA5-AB5</f>
+        <v>3.7549999999999972E-2</v>
+      </c>
+      <c r="AI5">
+        <f>AH5-(AL5*AG5)</f>
+        <v>2.9537598466407071E-2</v>
+      </c>
+      <c r="AJ5">
+        <f>AH5+(AL5*AG5)</f>
+        <v>4.5562401533592874E-2</v>
+      </c>
+      <c r="AK5" t="str">
+        <f>IF(AND(AH5&gt;AI5,AH5&lt;AJ5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM5">
+        <f>SQRT( (AD5*(1-AD5)/20000) + (AE5*(1-AE5)/20000) )</f>
+        <v>4.8786384538605058E-3</v>
+      </c>
+      <c r="AN5" s="8">
+        <f>AD5-AE5</f>
+        <v>3.5985631875563917E-2</v>
+      </c>
+      <c r="AO5">
+        <f>AN5-(AL5*AM5)</f>
+        <v>2.7960271618963382E-2</v>
+      </c>
+      <c r="AP5">
+        <f>AN5+(AL5*AM5)</f>
+        <v>4.4010992132164452E-2</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f>IF(AND(AN5&gt;AO5,AN5&lt;AP5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AT5" s="2">
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="AU5">
         <v>0.68620000000000003</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AV5" s="2">
         <v>0.63470000000000004</v>
       </c>
-      <c r="Y5" s="2" t="b">
-        <f t="shared" ref="Y5:Y19" si="3">X5&gt;=W5</f>
+      <c r="AW5" s="2" t="b">
+        <f t="shared" ref="AW5:AW19" si="2">AV5&gt;=AU5</f>
         <v>0</v>
       </c>
-      <c r="Z5">
+      <c r="AX5">
         <v>0.67203271407683496</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AY5" s="2">
         <v>0.62504464491840594</v>
       </c>
-      <c r="AB5" s="2" t="b">
-        <f t="shared" ref="AB5:AB19" si="4">AA5&gt;=Z5</f>
+      <c r="AZ5" s="2" t="b">
+        <f t="shared" ref="AZ5:AZ19" si="3">AY5&gt;=AX5</f>
         <v>0</v>
       </c>
+      <c r="BA5">
+        <f>SQRT( (AU5*(1-AU5)/20000) + (AV5*(1-AV5)/20000) )</f>
+        <v>4.7285593472007935E-3</v>
+      </c>
+      <c r="BB5" s="8">
+        <f>AU5-AV5</f>
+        <v>5.149999999999999E-2</v>
+      </c>
+      <c r="BC5">
+        <f>BB5-(BF5*BA5)</f>
+        <v>4.3721519873854683E-2</v>
+      </c>
+      <c r="BD5">
+        <f>BB5+(BF5*BA5)</f>
+        <v>5.9278480126145297E-2</v>
+      </c>
+      <c r="BE5" t="str">
+        <f>IF(AND(BB5&gt;BC5,BB5&lt;BD5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BF5" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG5">
+        <f>SQRT( (AX5*(1-AX5)/20000) + (AY5*(1-AY5)/20000) )</f>
+        <v>4.7684828932512057E-3</v>
+      </c>
+      <c r="BH5" s="8">
+        <f>AX5-AY5</f>
+        <v>4.6988069158429013E-2</v>
+      </c>
+      <c r="BI5">
+        <f>BH5-(BF5*BG5)</f>
+        <v>3.9143914799030781E-2</v>
+      </c>
+      <c r="BJ5">
+        <f>BH5+(BF5*BG5)</f>
+        <v>5.4832223517827246E-2</v>
+      </c>
+      <c r="BK5" t="str">
+        <f>IF(AND(BH5&gt;BI5,BH5&lt;BJ5),"T","F")</f>
+        <v>T</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -19000,54 +19272,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N6" s="2">
+      <c r="M6">
+        <f t="shared" ref="M6:M19" si="4">SQRT( (G6*(1-G6)/20000) + (H6*(1-H6)/20000) )</f>
+        <v>4.3753566568909578E-3</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:N19" si="5">G6-H6</f>
+        <v>-4.105000000000103E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O19" si="6">N6-(R6*M6)</f>
+        <v>-4.8247461700586657E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P19" si="7">N6+(R6*M6)</f>
+        <v>-3.3852538299415404E-2</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ref="Q6:Q19" si="8">IF(AND(N6&gt;O6,N6&lt;P6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="R6" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S19" si="9">SQRT( (J6*(1-J6)/20000) + (K6*(1-K6)/20000) )</f>
+        <v>4.4082046994241954E-3</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6:T19" si="10">J6-K6</f>
+        <v>-4.8729690593336983E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U19" si="11">T6-(R6*S6)</f>
+        <v>-5.5981187323889785E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V19" si="12">T6+(R6*S6)</f>
+        <v>-4.1478193862784181E-2</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" ref="W6:W19" si="13">IF(AND(T6&gt;U6,T6&lt;V6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="Z6" s="2">
         <v>3</v>
       </c>
-      <c r="O6" s="10">
+      <c r="AA6" s="10">
         <v>0.68874999999999997</v>
       </c>
-      <c r="P6" s="10">
+      <c r="AB6" s="10">
         <v>0.72860000000000003</v>
       </c>
-      <c r="Q6" s="2" t="b">
-        <f t="shared" ref="Q6:Q19" si="5">P6&gt;=O6</f>
+      <c r="AC6" s="2" t="b">
+        <f t="shared" ref="AC6:AC19" si="14">AB6&gt;=AA6</f>
         <v>1</v>
       </c>
-      <c r="R6" s="10">
+      <c r="AD6" s="10">
         <v>0.683366618902158</v>
       </c>
-      <c r="S6" s="10">
+      <c r="AE6" s="10">
         <v>0.72569315583113803</v>
       </c>
-      <c r="T6" t="b">
+      <c r="AF6" t="b">
+        <f>AE6&gt;=AD6</f>
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ref="AG6:AG19" si="15">SQRT( (AA6*(1-AA6)/20000) + (AB6*(1-AB6)/20000) )</f>
+        <v>4.5393583109289799E-3</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" ref="AH6:AH19" si="16">AA6-AB6</f>
+        <v>-3.9850000000000052E-2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI19" si="17">AH6-(AL6*AG6)</f>
+        <v>-4.7317244421478222E-2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ19" si="18">AH6+(AL6*AG6)</f>
+        <v>-3.2382755578521882E-2</v>
+      </c>
+      <c r="AK6" t="str">
+        <f t="shared" ref="AK6:AK19" si="19">IF(AND(AH6&gt;AI6,AH6&lt;AJ6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AL6" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ref="AM6:AM19" si="20">SQRT( (AD6*(1-AD6)/20000) + (AE6*(1-AE6)/20000) )</f>
+        <v>4.5576270277600181E-3</v>
+      </c>
+      <c r="AN6" s="8">
+        <f t="shared" ref="AN6:AN19" si="21">AD6-AE6</f>
+        <v>-4.232653692898003E-2</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO19" si="22">AN6-(AL6*AM6)</f>
+        <v>-4.9823833389645258E-2</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ref="AP6:AP19" si="23">AN6+(AL6*AM6)</f>
+        <v>-3.4829240468314801E-2</v>
+      </c>
+      <c r="AQ6" t="str">
+        <f t="shared" ref="AQ6:AQ19" si="24">IF(AND(AN6&gt;AO6,AN6&lt;AP6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>0.71084999999999998</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="AW6" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>0.71084999999999998</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0.69930000000000003</v>
-      </c>
-      <c r="Y6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0.69753905806282501</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>0.69169932009979096</v>
+      </c>
+      <c r="AZ6" s="2" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0.69753905806282501</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0.69169932009979096</v>
-      </c>
-      <c r="AB6" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA18" si="25">SQRT( (AU6*(1-AU6)/20000) + (AV6*(1-AV6)/20000) )</f>
+        <v>4.5597247038609689E-3</v>
+      </c>
+      <c r="BB6" s="8">
+        <f t="shared" ref="BB6:BB18" si="26">AU6-AV6</f>
+        <v>1.1549999999999949E-2</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ref="BC6:BC18" si="27">BB6-(BF6*BA6)</f>
+        <v>4.0492528621486551E-3</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6:BD18" si="28">BB6+(BF6*BA6)</f>
+        <v>1.9050747137851244E-2</v>
+      </c>
+      <c r="BE6" t="str">
+        <f t="shared" ref="BE6:BE18" si="29">IF(AND(BB6&gt;BC6,BB6&lt;BD6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BF6" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" ref="BG6:BG18" si="30">SQRT( (AX6*(1-AX6)/20000) + (AY6*(1-AY6)/20000) )</f>
+        <v>4.6055927480234821E-3</v>
+      </c>
+      <c r="BH6" s="8">
+        <f t="shared" ref="BH6:BH18" si="31">AX6-AY6</f>
+        <v>5.8397379630340529E-3</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" ref="BI6:BI18" si="32">BH6-(BF6*BG6)</f>
+        <v>-1.7364621074645748E-3</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" ref="BJ6:BJ18" si="33">BH6+(BF6*BG6)</f>
+        <v>1.3415938033532681E-2</v>
+      </c>
+      <c r="BK6" t="str">
+        <f t="shared" ref="BK6:BK18" si="34">IF(AND(BH6&gt;BI6,BH6&lt;BJ6),"T","F")</f>
+        <v>T</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -19083,54 +19484,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N7" s="2">
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>3.8183654552700948E-3</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="5"/>
+        <v>-9.2100000000000071E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>-9.8381211173919375E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>-8.5818788826080766E-2</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R7" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="9"/>
+        <v>3.8328139804847277E-3</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="10"/>
+        <v>-9.141613627852907E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="11"/>
+        <v>-9.7721115276426448E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="12"/>
+        <v>-8.5111157280631691E-2</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z7" s="2">
         <v>4</v>
       </c>
-      <c r="O7" s="10">
+      <c r="AA7" s="10">
         <v>0.76590000000000003</v>
       </c>
-      <c r="P7" s="10">
+      <c r="AB7" s="10">
         <v>0.86204999999999998</v>
       </c>
-      <c r="Q7" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC7" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R7" s="10">
+      <c r="AD7" s="10">
         <v>0.76380594244551403</v>
       </c>
-      <c r="S7" s="10">
+      <c r="AE7" s="10">
         <v>0.861038469734134</v>
       </c>
-      <c r="T7" t="b">
+      <c r="AF7" t="b">
+        <f>AE7&gt;=AD7</f>
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="15"/>
+        <v>3.8614568979855259E-3</v>
+      </c>
+      <c r="AH7" s="8">
+        <f t="shared" si="16"/>
+        <v>-9.6149999999999958E-2</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="17"/>
+        <v>-0.10250209659718615</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="18"/>
+        <v>-8.9797903402813767E-2</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="20"/>
+        <v>3.8733554452339441E-3</v>
+      </c>
+      <c r="AN7" s="8">
+        <f t="shared" si="21"/>
+        <v>-9.7232527288619974E-2</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="22"/>
+        <v>-0.10360419699602981</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="23"/>
+        <v>-9.0860857581210139E-2</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU7">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0.77375000000000005</v>
+      </c>
+      <c r="AW7" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V7" s="2">
-        <v>4</v>
-      </c>
-      <c r="W7">
-        <v>0.73880000000000001</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0.77375000000000005</v>
-      </c>
-      <c r="Y7" s="2" t="b">
+      <c r="AX7">
+        <v>0.73052949564670699</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>0.76949398775146405</v>
+      </c>
+      <c r="AZ7" s="2" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z7">
-        <v>0.73052949564670699</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0.76949398775146405</v>
-      </c>
-      <c r="AB7" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="BA7">
+        <f t="shared" si="25"/>
+        <v>4.2897289978505631E-3</v>
+      </c>
+      <c r="BB7" s="8">
+        <f t="shared" si="26"/>
+        <v>-3.4950000000000037E-2</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="27"/>
+        <v>-4.2006604201464209E-2</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="28"/>
+        <v>-2.789339579853586E-2</v>
+      </c>
+      <c r="BE7" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF7" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="30"/>
+        <v>4.3256741798399969E-3</v>
+      </c>
+      <c r="BH7" s="8">
+        <f t="shared" si="31"/>
+        <v>-3.8964492104757054E-2</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="32"/>
+        <v>-4.608022613059385E-2</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="33"/>
+        <v>-3.1848758078920257E-2</v>
+      </c>
+      <c r="BK7" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -19166,54 +19696,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" s="2">
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>3.5125210853459658E-3</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.7449999999999974E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>-3.3228097185394087E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>-2.1671902814605862E-2</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R8" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="9"/>
+        <v>3.5402995957512086E-3</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="10"/>
+        <v>-2.9467786560596898E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="11"/>
+        <v>-3.5291579395607633E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="12"/>
+        <v>-2.3643993725586159E-2</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z8" s="2">
         <v>5</v>
       </c>
-      <c r="O8" s="10">
+      <c r="AA8" s="10">
         <v>0.84219999999999895</v>
       </c>
-      <c r="P8" s="10">
+      <c r="AB8" s="10">
         <v>0.87280000000000002</v>
       </c>
-      <c r="Q8" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC8" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R8" s="10">
+      <c r="AD8" s="10">
         <v>0.84068739174931495</v>
       </c>
-      <c r="S8" s="10">
+      <c r="AE8" s="10">
         <v>0.87143209122089005</v>
       </c>
-      <c r="T8" t="b">
+      <c r="AF8" t="b">
+        <f>AE8&gt;=AD8</f>
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="15"/>
+        <v>3.492272326150988E-3</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" si="16"/>
+        <v>-3.0600000000001071E-2</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="17"/>
+        <v>-3.6344787976519445E-2</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="18"/>
+        <v>-2.4855212023482696E-2</v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL8" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="20"/>
+        <v>3.5069238850759595E-3</v>
+      </c>
+      <c r="AN8" s="8">
+        <f t="shared" si="21"/>
+        <v>-3.0744699471575099E-2</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="22"/>
+        <v>-3.6513589262525049E-2</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="23"/>
+        <v>-2.4975809680625145E-2</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU8">
+        <v>0.77564999999999995</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AW8" s="2" t="b">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0.76961229558077904</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>0.77067388449269902</v>
+      </c>
+      <c r="AZ8" s="2" t="b">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="2">
-        <v>5</v>
-      </c>
-      <c r="W8">
-        <v>0.77564999999999995</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="Y8" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0.76961229558077904</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0.77067388449269902</v>
-      </c>
-      <c r="AB8" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="BA8">
+        <f t="shared" si="25"/>
+        <v>4.1736798960869048E-3</v>
+      </c>
+      <c r="BB8" s="8">
+        <f t="shared" si="26"/>
+        <v>6.4999999999992841E-4</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="27"/>
+        <v>-6.2157034290630303E-3</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="28"/>
+        <v>7.5157034290628871E-3</v>
+      </c>
+      <c r="BE8" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF8" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="30"/>
+        <v>4.2074033460395479E-3</v>
+      </c>
+      <c r="BH8" s="8">
+        <f t="shared" si="31"/>
+        <v>-1.0615889119199862E-3</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="32"/>
+        <v>-7.9827674161550427E-3</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="33"/>
+        <v>5.8595895923150704E-3</v>
+      </c>
+      <c r="BK8" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -19249,54 +19908,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N9" s="2">
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>3.2830707424604793E-3</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="5"/>
+        <v>-3.3100000000000018E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>-3.8500651371347505E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>-2.7699348628652531E-2</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R9" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S9">
+        <f>SQRT( (J9*(1-J9)/20000) + (K9*(1-K9)/20000) )</f>
+        <v>3.3026034961992222E-3</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.4695533126142042E-2</v>
+      </c>
+      <c r="U9">
+        <f>T9-(R9*S9)</f>
+        <v>-4.0128315877389763E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="12"/>
+        <v>-2.9262750374894321E-2</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z9" s="2">
         <v>6</v>
       </c>
-      <c r="O9" s="10">
+      <c r="AA9" s="10">
         <v>0.86764999999999903</v>
       </c>
-      <c r="P9" s="10">
+      <c r="AB9" s="10">
         <v>0.90489999999999904</v>
       </c>
-      <c r="Q9" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC9" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R9" s="10">
+      <c r="AD9" s="10">
         <v>0.86605680341308799</v>
       </c>
-      <c r="S9" s="10">
+      <c r="AE9" s="10">
         <v>0.90381271197377</v>
       </c>
-      <c r="T9" t="b">
+      <c r="AF9" t="b">
+        <f>AE9&gt;=AD9</f>
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="15"/>
+        <v>3.1693017172557229E-3</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="16"/>
+        <v>-3.7250000000000005E-2</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="17"/>
+        <v>-4.2463501324885668E-2</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="18"/>
+        <v>-3.2036498675114343E-2</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL9" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="20"/>
+        <v>3.1854176360673722E-3</v>
+      </c>
+      <c r="AN9" s="8">
+        <f t="shared" si="21"/>
+        <v>-3.7755908560682006E-2</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="22"/>
+        <v>-4.2995920572012833E-2</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="23"/>
+        <v>-3.2515896549351178E-2</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU9">
+        <v>0.78674999999999895</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0.77105000000000001</v>
+      </c>
+      <c r="AW9" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <v>0.78674999999999895</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0.77105000000000001</v>
-      </c>
-      <c r="Y9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0.78229443315685898</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>0.766443962322928</v>
+      </c>
+      <c r="AZ9" s="2" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>0.78229443315685898</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0.766443962322928</v>
-      </c>
-      <c r="AB9" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="BA9">
+        <f t="shared" si="25"/>
+        <v>4.1491344579321632E-3</v>
+      </c>
+      <c r="BB9" s="8">
+        <f t="shared" si="26"/>
+        <v>1.5699999999998937E-2</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="27"/>
+        <v>8.8746738167005297E-3</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="28"/>
+        <v>2.2525326183297344E-2</v>
+      </c>
+      <c r="BE9" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF9" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="30"/>
+        <v>4.1792192330045684E-3</v>
+      </c>
+      <c r="BH9" s="8">
+        <f t="shared" si="31"/>
+        <v>1.5850470833930985E-2</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="32"/>
+        <v>8.9756551956384698E-3</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="33"/>
+        <v>2.2725286472223501E-2</v>
+      </c>
+      <c r="BK9" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -19332,54 +20120,183 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="2">
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>3.1295206501954897E-3</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="5"/>
+        <v>9.9999999999988987E-5</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>-5.0480614695715912E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>5.2480614695715692E-3</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R10" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="9"/>
+        <v>3.1381243978272112E-3</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="10"/>
+        <v>3.0031219453996449E-4</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="11"/>
+        <v>-4.8619024398857983E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="12"/>
+        <v>5.4625268289657273E-3</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z10" s="2">
         <v>7</v>
       </c>
-      <c r="O10" s="10">
+      <c r="AA10" s="10">
         <v>0.91099999999999903</v>
       </c>
-      <c r="P10" s="10">
+      <c r="AB10" s="10">
         <v>0.91059999999999997</v>
       </c>
-      <c r="Q10" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC10" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R10" s="10">
+      <c r="AD10" s="10">
         <v>0.91024578586142202</v>
       </c>
-      <c r="S10" s="10">
+      <c r="AE10" s="10">
         <v>0.909447008656184</v>
       </c>
-      <c r="T10" t="b">
+      <c r="AF10" t="b">
+        <f>AE10&gt;=AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="15"/>
+        <v>2.8503213853879779E-3</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="16"/>
+        <v>3.9999999999906777E-4</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="17"/>
+        <v>-4.2887786789641558E-3</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="18"/>
+        <v>5.0887786789622913E-3</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL10" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="20"/>
+        <v>2.8640141609762256E-3</v>
+      </c>
+      <c r="AN10" s="8">
+        <f t="shared" si="21"/>
+        <v>7.9877720523802154E-4</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="22"/>
+        <v>-3.91252608956787E-3</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="23"/>
+        <v>5.5100805000439131E-3</v>
+      </c>
+      <c r="AQ10" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>7</v>
+      </c>
+      <c r="AU10">
+        <v>0.818549999999999</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0.76315</v>
+      </c>
+      <c r="AW10" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V10" s="2">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>0.818549999999999</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0.76315</v>
-      </c>
-      <c r="Y10" s="2" t="b">
+      <c r="AX10">
+        <v>0.81447771109921396</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>0.75788586076887798</v>
+      </c>
+      <c r="AZ10" s="2" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>0.81447771109921396</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0.75788586076887798</v>
-      </c>
-      <c r="AB10" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="BA10">
+        <f t="shared" si="25"/>
+        <v>4.0575730122820999E-3</v>
+      </c>
+      <c r="BB10" s="8">
+        <f t="shared" si="26"/>
+        <v>5.5399999999999006E-2</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="27"/>
+        <v>4.872529239479495E-2</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="28"/>
+        <v>6.2074707605203061E-2</v>
+      </c>
+      <c r="BE10" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF10" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="30"/>
+        <v>4.0902240283222516E-3</v>
+      </c>
+      <c r="BH10" s="8">
+        <f t="shared" si="31"/>
+        <v>5.659185033033598E-2</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="32"/>
+        <v>4.9863431803745875E-2</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="33"/>
+        <v>6.3320268856926085E-2</v>
+      </c>
+      <c r="BK10" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -19415,54 +20332,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" s="2">
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>2.9193155019627461E-3</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="5"/>
+        <v>-9.199999999999986E-3</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>-1.4002274000728704E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>-4.3977259992712689E-3</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R11" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="9"/>
+        <v>2.9242309645285034E-3</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="10"/>
+        <v>-8.6106995572959866E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="11"/>
+        <v>-1.3421059493945375E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="12"/>
+        <v>-3.8003396206465982E-3</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z11" s="2">
         <v>8</v>
       </c>
-      <c r="O11" s="10">
+      <c r="AA11" s="10">
         <v>0.93219999999999903</v>
       </c>
-      <c r="P11" s="10">
+      <c r="AB11" s="10">
         <v>0.93310000000000004</v>
       </c>
-      <c r="Q11" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC11" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R11" s="10">
+      <c r="AD11" s="10">
         <v>0.93183717156625601</v>
       </c>
-      <c r="S11" s="10">
+      <c r="AE11" s="10">
         <v>0.93217629995246898</v>
       </c>
-      <c r="T11" t="b">
+      <c r="AF11" t="b">
+        <f>AE11&gt;=AD11</f>
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="15"/>
+        <v>2.506267643329427E-3</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="16"/>
+        <v>-9.000000000010111E-4</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="17"/>
+        <v>-5.0228102732779185E-3</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="18"/>
+        <v>3.2228102732758963E-3</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL11" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="20"/>
+        <v>2.517342875067375E-3</v>
+      </c>
+      <c r="AN11" s="8">
+        <f t="shared" si="21"/>
+        <v>-3.3912838621297237E-4</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="22"/>
+        <v>-4.4801574156988046E-3</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="23"/>
+        <v>3.8019006432728599E-3</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU11">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="AW11" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
-        <v>8</v>
-      </c>
-      <c r="W11">
-        <v>0.82879999999999998</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0.78939999999999999</v>
-      </c>
-      <c r="Y11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0.82472812628921499</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>0.78564954553903299</v>
+      </c>
+      <c r="AZ11" s="2" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>0.82472812628921499</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0.78564954553903299</v>
-      </c>
-      <c r="AB11" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="BA11">
+        <f t="shared" si="25"/>
+        <v>3.9251636908541792E-3</v>
+      </c>
+      <c r="BB11" s="8">
+        <f t="shared" si="26"/>
+        <v>3.9399999999999991E-2</v>
+      </c>
+      <c r="BC11">
+        <f t="shared" si="27"/>
+        <v>3.2943105728544864E-2</v>
+      </c>
+      <c r="BD11">
+        <f t="shared" si="28"/>
+        <v>4.5856894271455118E-2</v>
+      </c>
+      <c r="BE11" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF11" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG11">
+        <f t="shared" si="30"/>
+        <v>3.9557299018641275E-3</v>
+      </c>
+      <c r="BH11" s="8">
+        <f t="shared" si="31"/>
+        <v>3.9078580750182002E-2</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="32"/>
+        <v>3.2571405061615509E-2</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="33"/>
+        <v>4.5585756438748494E-2</v>
+      </c>
+      <c r="BK11" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -19498,54 +20544,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N12" s="2">
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>2.6435532432693772E-3</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.900000000001012E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>-6.2486450851791378E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>2.4486450851771138E-3</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R12" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="9"/>
+        <v>2.6518384325762783E-3</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.766238511828E-3</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="11"/>
+        <v>-6.1285127334159781E-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="12"/>
+        <v>2.5960357097599782E-3</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z12" s="2">
         <v>9</v>
       </c>
-      <c r="O12" s="10">
+      <c r="AA12" s="10">
         <v>0.95914999999999995</v>
       </c>
-      <c r="P12" s="10">
+      <c r="AB12" s="10">
         <v>0.95379999999999998</v>
       </c>
-      <c r="Q12" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC12" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R12" s="10">
+      <c r="AD12" s="10">
         <v>0.95857235147360498</v>
       </c>
-      <c r="S12" s="10">
+      <c r="AE12" s="10">
         <v>0.95307088199811896</v>
       </c>
-      <c r="T12" t="b">
+      <c r="AF12" t="b">
+        <f>AE12&gt;=AD12</f>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="15"/>
+        <v>2.0401818240049102E-3</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="16"/>
+        <v>5.3499999999999659E-3</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="17"/>
+        <v>1.9939008995118884E-3</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="18"/>
+        <v>8.7060991004880434E-3</v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL12" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="20"/>
+        <v>2.054728380460725E-3</v>
+      </c>
+      <c r="AN12" s="8">
+        <f t="shared" si="21"/>
+        <v>5.5014694754860205E-3</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="22"/>
+        <v>2.1214412896281279E-3</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="23"/>
+        <v>8.8814976613439123E-3</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AU12">
+        <v>0.85904999999999898</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0.83174999999999999</v>
+      </c>
+      <c r="AW12" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V12" s="2">
-        <v>9</v>
-      </c>
-      <c r="W12">
-        <v>0.85904999999999898</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0.83174999999999999</v>
-      </c>
-      <c r="Y12" s="2" t="b">
+      <c r="AX12">
+        <v>0.85649297416284997</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>0.82848443255349002</v>
+      </c>
+      <c r="AZ12" s="2" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>0.85649297416284997</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0.82848443255349002</v>
-      </c>
-      <c r="AB12" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="BA12">
+        <f t="shared" si="25"/>
+        <v>3.6126516231156356E-3</v>
+      </c>
+      <c r="BB12" s="8">
+        <f t="shared" si="26"/>
+        <v>2.7299999999998992E-2</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="27"/>
+        <v>2.135718807997377E-2</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" si="28"/>
+        <v>3.3242811920024214E-2</v>
+      </c>
+      <c r="BE12" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF12" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="30"/>
+        <v>3.6401286855174313E-3</v>
+      </c>
+      <c r="BH12" s="8">
+        <f t="shared" si="31"/>
+        <v>2.8008541609359949E-2</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="32"/>
+        <v>2.2020529921683775E-2</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="33"/>
+        <v>3.3996553297036124E-2</v>
+      </c>
+      <c r="BK12" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -19581,54 +20756,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13" s="2">
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>2.6074793863039539E-3</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.6199999999998993E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>-2.0489303590468997E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>-1.1910696409528989E-2</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R13" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="9"/>
+        <v>2.6116115404279808E-3</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.6365651514746005E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="11"/>
+        <v>-2.0661752498750033E-2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="12"/>
+        <v>-1.2069550530741976E-2</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z13" s="2">
         <v>10</v>
       </c>
-      <c r="O13" s="10">
+      <c r="AA13" s="10">
         <v>0.95645000000000002</v>
       </c>
-      <c r="P13" s="10">
+      <c r="AB13" s="10">
         <v>0.96619999999999995</v>
       </c>
-      <c r="Q13" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC13" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R13" s="10">
+      <c r="AD13" s="10">
         <v>0.95594625535357902</v>
       </c>
-      <c r="S13" s="10">
+      <c r="AE13" s="10">
         <v>0.96569857857203001</v>
       </c>
-      <c r="T13" t="b">
+      <c r="AF13" t="b">
+        <f>AE13&gt;=AD13</f>
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="15"/>
+        <v>1.9275756470240025E-3</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="16"/>
+        <v>-9.7499999999999254E-3</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="17"/>
+        <v>-1.2920861939354409E-2</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="18"/>
+        <v>-6.5791380606454418E-3</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL13" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="20"/>
+        <v>1.9395598230660441E-3</v>
+      </c>
+      <c r="AN13" s="8">
+        <f t="shared" si="21"/>
+        <v>-9.7523232184509867E-3</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="22"/>
+        <v>-1.294289912739463E-2</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="23"/>
+        <v>-6.561747309507344E-3</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AU13">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0.85265000000000002</v>
+      </c>
+      <c r="AW13" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="2">
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <v>0.85540000000000005</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0.85265000000000002</v>
-      </c>
-      <c r="Y13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0.85292465436851295</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>0.85093962721703598</v>
+      </c>
+      <c r="AZ13" s="2" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>0.85292465436851295</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>0.85093962721703598</v>
-      </c>
-      <c r="AB13" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="BA13">
+        <f t="shared" si="25"/>
+        <v>3.5307847392612311E-3</v>
+      </c>
+      <c r="BB13" s="8">
+        <f t="shared" si="26"/>
+        <v>2.7500000000000302E-3</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="27"/>
+        <v>-3.0581408960846952E-3</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="28"/>
+        <v>8.5581408960847555E-3</v>
+      </c>
+      <c r="BE13" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF13" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="30"/>
+        <v>3.5516585307967985E-3</v>
+      </c>
+      <c r="BH13" s="8">
+        <f t="shared" si="31"/>
+        <v>1.9850271514769702E-3</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="32"/>
+        <v>-3.8574511316837633E-3</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="33"/>
+        <v>7.8275054346377028E-3</v>
+      </c>
+      <c r="BK13" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -19664,54 +20968,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14" s="2">
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>2.4553275494320508E-3</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.1250000000000093E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>-1.5289013818815818E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>-7.2109861811843695E-3</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R14" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="9"/>
+        <v>2.462098514824972E-3</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.1009519807612E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="11"/>
+        <v>-1.505967186449908E-2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="12"/>
+        <v>-6.9593677507249216E-3</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z14" s="2">
         <v>11</v>
       </c>
-      <c r="O14" s="10">
+      <c r="AA14" s="10">
         <v>0.97204999999999997</v>
       </c>
-      <c r="P14" s="10">
+      <c r="AB14" s="10">
         <v>0.97339999999999904</v>
       </c>
-      <c r="Q14" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC14" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R14" s="10">
+      <c r="AD14" s="10">
         <v>0.97179696228497703</v>
       </c>
-      <c r="S14" s="10">
+      <c r="AE14" s="10">
         <v>0.97315171577724102</v>
       </c>
-      <c r="T14" t="b">
+      <c r="AF14" t="b">
+        <f>AE14&gt;=AD14</f>
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="15"/>
+        <v>1.6288222355432304E-3</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="16"/>
+        <v>-1.3499999999990742E-3</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="17"/>
+        <v>-4.0294125774676878E-3</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="18"/>
+        <v>1.3294125774695399E-3</v>
+      </c>
+      <c r="AK14" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL14" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="20"/>
+        <v>1.6360788525575545E-3</v>
+      </c>
+      <c r="AN14" s="8">
+        <f t="shared" si="21"/>
+        <v>-1.3547534922639937E-3</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="22"/>
+        <v>-4.0461032047211711E-3</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="23"/>
+        <v>1.3365962201931834E-3</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>11</v>
+      </c>
+      <c r="AU14">
+        <v>0.86185</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0.863899999999999</v>
+      </c>
+      <c r="AW14" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V14" s="2">
-        <v>11</v>
-      </c>
-      <c r="W14">
-        <v>0.86185</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0.863899999999999</v>
-      </c>
-      <c r="Y14" s="2" t="b">
+      <c r="AX14">
+        <v>0.859267428999822</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>0.86232589467792597</v>
+      </c>
+      <c r="AZ14" s="2" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z14">
-        <v>0.859267428999822</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0.86232589467792597</v>
-      </c>
-      <c r="AB14" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="BA14">
+        <f t="shared" si="25"/>
+        <v>3.4397773728833143E-3</v>
+      </c>
+      <c r="BB14" s="8">
+        <f t="shared" si="26"/>
+        <v>-2.0499999999989971E-3</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="27"/>
+        <v>-7.7084337783920494E-3</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="28"/>
+        <v>3.6084337783940552E-3</v>
+      </c>
+      <c r="BE14" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF14" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="30"/>
+        <v>3.4615521121723588E-3</v>
+      </c>
+      <c r="BH14" s="8">
+        <f t="shared" si="31"/>
+        <v>-3.0584656781039721E-3</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="32"/>
+        <v>-8.7527189026275019E-3</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="33"/>
+        <v>2.6357875464195577E-3</v>
+      </c>
+      <c r="BK14" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -19747,54 +21180,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N15" s="2">
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>2.4711536526489E-3</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.1850000000000027E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>-1.5915047758607467E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>-7.7849522413925868E-3</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R15" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="9"/>
+        <v>2.4783178968691886E-3</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.1819519827052982E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="11"/>
+        <v>-1.5896352767402797E-2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="12"/>
+        <v>-7.742686886703167E-3</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z15" s="2">
         <v>12</v>
       </c>
-      <c r="O15" s="10">
+      <c r="AA15" s="10">
         <v>0.972749999999999</v>
       </c>
-      <c r="P15" s="10">
+      <c r="AB15" s="10">
         <v>0.97575000000000001</v>
       </c>
-      <c r="Q15" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC15" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R15" s="10">
+      <c r="AD15" s="10">
         <v>0.97257098698496103</v>
       </c>
-      <c r="S15" s="10">
+      <c r="AE15" s="10">
         <v>0.97547458459895497</v>
       </c>
-      <c r="T15" t="b">
+      <c r="AF15" t="b">
+        <f>AE15&gt;=AD15</f>
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="15"/>
+        <v>1.5838146198340407E-3</v>
+      </c>
+      <c r="AH15" s="8">
+        <f t="shared" si="16"/>
+        <v>-3.0000000000010019E-3</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="17"/>
+        <v>-5.6053750496279989E-3</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="18"/>
+        <v>-3.9462495037400486E-4</v>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL15" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="20"/>
+        <v>1.5906065142031671E-3</v>
+      </c>
+      <c r="AN15" s="8">
+        <f t="shared" si="21"/>
+        <v>-2.9035976139939468E-3</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="22"/>
+        <v>-5.520145329858157E-3</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="23"/>
+        <v>-2.8704989812973697E-4</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU15">
+        <v>0.86299999999999899</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="AW15" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V15" s="2">
-        <v>12</v>
-      </c>
-      <c r="W15">
-        <v>0.86299999999999899</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0.86509999999999998</v>
-      </c>
-      <c r="Y15" s="2" t="b">
+      <c r="AX15">
+        <v>0.86058775557260903</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>0.86349680157511799</v>
+      </c>
+      <c r="AZ15" s="2" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z15">
-        <v>0.86058775557260903</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0.86349680157511799</v>
-      </c>
-      <c r="AB15" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="BA15">
+        <f t="shared" si="25"/>
+        <v>3.4273385447020021E-3</v>
+      </c>
+      <c r="BB15" s="8">
+        <f t="shared" si="26"/>
+        <v>-2.10000000000099E-3</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="27"/>
+        <v>-7.7379719060357835E-3</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="28"/>
+        <v>3.5379719060338035E-3</v>
+      </c>
+      <c r="BE15" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF15" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="30"/>
+        <v>3.4485253788812957E-3</v>
+      </c>
+      <c r="BH15" s="8">
+        <f t="shared" si="31"/>
+        <v>-2.9090460025089637E-3</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="32"/>
+        <v>-8.5818702507686959E-3</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="33"/>
+        <v>2.7637782457507675E-3</v>
+      </c>
+      <c r="BK15" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -19830,54 +21392,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N16" s="2">
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>2.502155370875286E-3</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.1500000000000954E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>-1.5616045585090801E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>-7.3839544149111079E-3</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R16" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="9"/>
+        <v>2.5089454882549662E-3</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.1421958190664938E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="11"/>
+        <v>-1.5549173518844358E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="12"/>
+        <v>-7.2947428624855187E-3</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z16" s="2">
         <v>13</v>
       </c>
-      <c r="O16" s="10">
+      <c r="AA16" s="10">
         <v>0.97024999999999995</v>
       </c>
-      <c r="P16" s="10">
+      <c r="AB16" s="10">
         <v>0.97470000000000001</v>
       </c>
-      <c r="Q16" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC16" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R16" s="10">
+      <c r="AD16" s="10">
         <v>0.96999238603334204</v>
       </c>
-      <c r="S16" s="10">
+      <c r="AE16" s="10">
         <v>0.97435500547000298</v>
       </c>
-      <c r="T16" s="2" t="b">
+      <c r="AF16" s="2" t="b">
+        <f>AE16&gt;=AD16</f>
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="15"/>
+        <v>1.6359224844105548E-3</v>
+      </c>
+      <c r="AH16" s="8">
+        <f t="shared" si="16"/>
+        <v>-4.450000000000065E-3</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="17"/>
+        <v>-7.1410924868554274E-3</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="18"/>
+        <v>-1.7589075131447022E-3</v>
+      </c>
+      <c r="AK16" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL16" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="20"/>
+        <v>1.6446046007511871E-3</v>
+      </c>
+      <c r="AN16" s="8">
+        <f t="shared" si="21"/>
+        <v>-4.3626194366609417E-3</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="22"/>
+        <v>-7.0679940048966449E-3</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="23"/>
+        <v>-1.6572448684252388E-3</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AU16">
+        <v>0.86285000000000001</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="AW16" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V16" s="2">
-        <v>13</v>
-      </c>
-      <c r="W16">
-        <v>0.86285000000000001</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="Y16" s="2" t="b">
+      <c r="AX16">
+        <v>0.86045785323019897</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>0.86319402026301995</v>
+      </c>
+      <c r="AZ16" s="2" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z16">
-        <v>0.86045785323019897</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0.86319402026301995</v>
-      </c>
-      <c r="AB16" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="BA16">
+        <f t="shared" si="25"/>
+        <v>3.4297291256016123E-3</v>
+      </c>
+      <c r="BB16" s="8">
+        <f t="shared" si="26"/>
+        <v>-1.9500000000000073E-3</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="27"/>
+        <v>-7.5919044116146599E-3</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="28"/>
+        <v>3.6919044116146453E-3</v>
+      </c>
+      <c r="BE16" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF16" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="30"/>
+        <v>3.450798745869291E-3</v>
+      </c>
+      <c r="BH16" s="8">
+        <f t="shared" si="31"/>
+        <v>-2.7361670328209797E-3</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="32"/>
+        <v>-8.4127309697759646E-3</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="33"/>
+        <v>2.9403969041340043E-3</v>
+      </c>
+      <c r="BK16" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -19913,54 +21604,183 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="2">
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>2.5118659150121852E-3</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="5"/>
+        <v>1.2499999999999734E-3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>-2.882019430195071E-3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>5.3820194301950177E-3</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R17" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="9"/>
+        <v>2.517143982874376E-3</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="10"/>
+        <v>1.1833399488530016E-3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="11"/>
+        <v>-2.9573619029753468E-3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="12"/>
+        <v>5.3240418006813501E-3</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z17" s="2">
         <v>14</v>
       </c>
-      <c r="O17" s="11">
+      <c r="AA17" s="11">
         <v>0.9788</v>
       </c>
-      <c r="P17" s="10">
+      <c r="AB17" s="10">
         <v>0.97594999999999898</v>
       </c>
-      <c r="Q17" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC17" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R17" s="11">
+      <c r="AD17" s="11">
         <v>0.97857428265358504</v>
       </c>
-      <c r="S17" s="10">
+      <c r="AE17" s="10">
         <v>0.97573226595485596</v>
       </c>
-      <c r="T17" s="2" t="b">
+      <c r="AF17" s="2" t="b">
+        <f>AE17&gt;=AD17</f>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="15"/>
+        <v>1.4869794467308713E-3</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="16"/>
+        <v>2.8500000000010184E-3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="17"/>
+        <v>4.03918810128735E-4</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="18"/>
+        <v>5.2960811898733022E-3</v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL17" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="20"/>
+        <v>1.4940794341678206E-3</v>
+      </c>
+      <c r="AN17" s="8">
+        <f t="shared" si="21"/>
+        <v>2.8420166987290774E-3</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="22"/>
+        <v>3.8425602952301243E-4</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="23"/>
+        <v>5.2997773679351427E-3</v>
+      </c>
+      <c r="AQ17" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AU17">
+        <v>0.87134999999999996</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0.86764999999999903</v>
+      </c>
+      <c r="AW17" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V17" s="2">
-        <v>14</v>
-      </c>
-      <c r="W17">
-        <v>0.87134999999999996</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0.86764999999999903</v>
-      </c>
-      <c r="Y17" s="2" t="b">
+      <c r="AX17">
+        <v>0.86961660842210198</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>0.86610113347436002</v>
+      </c>
+      <c r="AZ17" s="2" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>0.86961660842210198</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0.86610113347436002</v>
-      </c>
-      <c r="AB17" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="BA17">
+        <f t="shared" si="25"/>
+        <v>3.368476324690443E-3</v>
+      </c>
+      <c r="BB17" s="8">
+        <f t="shared" si="26"/>
+        <v>3.7000000000009248E-3</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="27"/>
+        <v>-1.8411435541148538E-3</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="28"/>
+        <v>9.2411435541167042E-3</v>
+      </c>
+      <c r="BE17" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF17" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="30"/>
+        <v>3.3863957450904298E-3</v>
+      </c>
+      <c r="BH17" s="8">
+        <f t="shared" si="31"/>
+        <v>3.5154749477419589E-3</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="32"/>
+        <v>-2.0551460529317986E-3</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="33"/>
+        <v>9.0860959484157164E-3</v>
+      </c>
+      <c r="BK17" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="F18" s="2">
         <v>15</v>
       </c>
@@ -19984,54 +21804,183 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N18" s="2">
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>2.4766662068191584E-3</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.2999999999999687E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>-6.3741159102174844E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>1.7741159102175469E-3</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R18" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="9"/>
+        <v>2.4830162579696602E-3</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="10"/>
+        <v>-2.2452904702620069E-3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="11"/>
+        <v>-6.3298522146220983E-3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="12"/>
+        <v>1.8392712740980845E-3</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z18" s="2">
         <v>15</v>
       </c>
-      <c r="O18" s="10">
+      <c r="AA18" s="10">
         <v>0.97974999999999901</v>
       </c>
-      <c r="P18" s="11">
+      <c r="AB18" s="11">
         <v>0.97994999999999999</v>
       </c>
-      <c r="Q18" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC18" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R18" s="10">
+      <c r="AD18" s="10">
         <v>0.97951897702973401</v>
       </c>
-      <c r="S18" s="11">
+      <c r="AE18" s="11">
         <v>0.97975183616706796</v>
       </c>
-      <c r="T18" t="b">
+      <c r="AF18" t="b">
+        <f>AE18&gt;=AD18</f>
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="15"/>
+        <v>1.4051322891457758E-3</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" si="16"/>
+        <v>-2.0000000000097717E-4</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="17"/>
+        <v>-2.5114426156457783E-3</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="18"/>
+        <v>2.1114426156438239E-3</v>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL18" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="20"/>
+        <v>1.4124398458462614E-3</v>
+      </c>
+      <c r="AN18" s="8">
+        <f t="shared" si="21"/>
+        <v>-2.3285913733395169E-4</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="22"/>
+        <v>-2.5563226837510516E-3</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="23"/>
+        <v>2.0906044090831482E-3</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AU18">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="AV18" s="22">
+        <v>0.87314999999999998</v>
+      </c>
+      <c r="AW18" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V18" s="2">
-        <v>15</v>
-      </c>
-      <c r="W18">
-        <v>0.87119999999999997</v>
-      </c>
-      <c r="X18" s="22">
-        <v>0.87314999999999998</v>
-      </c>
-      <c r="Y18" s="2" t="b">
+      <c r="AX18">
+        <v>0.86934920690404005</v>
+      </c>
+      <c r="AY18" s="22">
+        <v>0.87129165676786302</v>
+      </c>
+      <c r="AZ18" s="2" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z18">
-        <v>0.86934920690404005</v>
-      </c>
-      <c r="AA18" s="22">
-        <v>0.87129165676786302</v>
-      </c>
-      <c r="AB18" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="BA18">
+        <f t="shared" si="25"/>
+        <v>3.3389342423893287E-3</v>
+      </c>
+      <c r="BB18" s="8">
+        <f t="shared" si="26"/>
+        <v>-1.9500000000000073E-3</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="27"/>
+        <v>-7.4425468287304527E-3</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="28"/>
+        <v>3.5425468287304382E-3</v>
+      </c>
+      <c r="BE18" t="str">
+        <f t="shared" si="29"/>
+        <v>T</v>
+      </c>
+      <c r="BF18" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="30"/>
+        <v>3.3594915461564417E-3</v>
+      </c>
+      <c r="BH18" s="8">
+        <f t="shared" si="31"/>
+        <v>-1.9424498638229704E-3</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" si="32"/>
+        <v>-7.468813457250317E-3</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="33"/>
+        <v>3.5839137296043762E-3</v>
+      </c>
+      <c r="BK18" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <v>16</v>
       </c>
@@ -20055,70 +22004,201 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="2">
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>2.5161715710579203E-3</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="5"/>
+        <v>4.9999999999994493E-5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>-4.0891022343902848E-3</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>4.1891022343902738E-3</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="R19" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="9"/>
+        <v>2.5211210093582415E-3</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="10"/>
+        <v>4.3820473742073318E-5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="11"/>
+        <v>-4.1034235866522339E-3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="12"/>
+        <v>4.1910645341363805E-3</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="Z19" s="2">
         <v>16</v>
       </c>
-      <c r="O19" s="10">
+      <c r="AA19" s="10">
         <v>0.97855000000000003</v>
       </c>
-      <c r="P19" s="10">
+      <c r="AB19" s="10">
         <v>0.97799999999999998</v>
       </c>
-      <c r="Q19" s="2" t="b">
-        <f t="shared" si="5"/>
+      <c r="AC19" s="2" t="b">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R19" s="10">
+      <c r="AD19" s="10">
         <v>0.97829964478834597</v>
       </c>
-      <c r="S19" s="10">
+      <c r="AE19" s="10">
         <v>0.97774889301247403</v>
       </c>
-      <c r="T19" t="b">
+      <c r="AF19" t="b">
+        <f>AE19&gt;=AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="15"/>
+        <v>1.4578391114934458E-3</v>
+      </c>
+      <c r="AH19" s="8">
+        <f t="shared" si="16"/>
+        <v>5.5000000000005045E-4</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="17"/>
+        <v>-1.848145338406668E-3</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="18"/>
+        <v>2.9481453384067689E-3</v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="19"/>
+        <v>T</v>
+      </c>
+      <c r="AL19" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="20"/>
+        <v>1.4660396485207641E-3</v>
+      </c>
+      <c r="AN19" s="8">
+        <f t="shared" si="21"/>
+        <v>5.5075177587193824E-4</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="22"/>
+        <v>-1.8608834459447189E-3</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="23"/>
+        <v>2.9623869976885954E-3</v>
+      </c>
+      <c r="AQ19" t="str">
+        <f t="shared" si="24"/>
+        <v>T</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>16</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="AW19" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>16</v>
-      </c>
-      <c r="W19" s="17">
-        <v>0.87239999999999995</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0.87239999999999995</v>
-      </c>
-      <c r="Y19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="17">
+        <v>0.87055355561107395</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>0.87055355561107395</v>
+      </c>
+      <c r="AZ19" s="2" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="17">
-        <v>0.87055355561107395</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>0.87055355561107395</v>
-      </c>
-      <c r="AB19" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="BA19">
+        <f t="shared" ref="BA19" si="35">SQRT( (AU19*(1-AU19)/20000) + (AV19*(1-AV19)/20000) )</f>
+        <v>3.3364388200594966E-3</v>
+      </c>
+      <c r="BB19" s="8">
+        <f t="shared" ref="BB19" si="36">AU19-AV19</f>
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" ref="BC19" si="37">BB19-(BF19*BA19)</f>
+        <v>-5.4884418589978721E-3</v>
+      </c>
+      <c r="BD19">
+        <f>BB19+(BF19*BA19)</f>
+        <v>5.4884418589978721E-3</v>
+      </c>
+      <c r="BE19" t="str">
+        <f t="shared" ref="BE19" si="38">IF(AND(BB19&gt;BC19,BB19&lt;BD19),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BF19" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" ref="BG19" si="39">SQRT( (AX19*(1-AX19)/20000) + (AY19*(1-AY19)/20000) )</f>
+        <v>3.3569340539246631E-3</v>
+      </c>
+      <c r="BH19" s="8">
+        <f t="shared" ref="BH19" si="40">AX19-AY19</f>
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" ref="BI19" si="41">BH19-(BF19*BG19)</f>
+        <v>-5.5221565187060706E-3</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" ref="BJ19" si="42">BH19+(BF19*BG19)</f>
+        <v>5.5221565187060706E-3</v>
+      </c>
+      <c r="BK19" t="str">
+        <f t="shared" ref="BK19" si="43">IF(AND(BH19&gt;BI19,BH19&lt;BJ19),"T","F")</f>
+        <v>T</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G18">
     <sortCondition ref="G2:G18"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
+  <mergeCells count="14">
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20127,22 +22207,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA1A0F3-CDFA-44A5-8D9B-278D2EF51524}">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:BV24"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH31" sqref="AH31"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BN26" sqref="BN26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="6" max="18" width="9" style="2"/>
+    <col min="21" max="21" width="9.44140625" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -20155,44 +22237,44 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="V1" s="15" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="AQ1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="BP1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -20205,60 +22287,88 @@
       <c r="D2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="N2" s="5" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="N2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="V2" s="5" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="AA2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AQ2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AR2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="7" t="s">
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AD2" s="5" t="s">
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BD2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BP2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="BQ2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="7" t="s">
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -20271,7 +22381,7 @@
       <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -20290,7 +22400,7 @@
       <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
@@ -20309,46 +22419,112 @@
       <c r="T3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="1" t="s">
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="1" t="s">
+      <c r="AX3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="BP3" s="25"/>
+      <c r="BQ3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="BS3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="BV3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -20407,46 +22583,132 @@
         <f>S4&gt;=R4</f>
         <v>1</v>
       </c>
-      <c r="V4" s="2">
+      <c r="U4">
+        <f>SQRT( (O4*(1-O4)/20000) + (P4*(1-P4)/20000) )</f>
+        <v>3.7478773659232771E-3</v>
+      </c>
+      <c r="V4" s="8">
+        <f>O4-P4</f>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="W4">
+        <f>V4-(Z4*U4)</f>
+        <v>-1.1165258266943794E-2</v>
+      </c>
+      <c r="X4">
+        <f>V4+(Z4*U4)</f>
+        <v>1.1652582669437863E-3</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>IF(AND(V4&gt;W4,V4&lt;X4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA4">
+        <f>SQRT( (R4*(1-R4)/20000) + (S4*(1-S4)/20000) )</f>
+        <v>4.9538520206174365E-3</v>
+      </c>
+      <c r="AB4" s="8">
+        <f>R4-S4</f>
+        <v>-2.5536643845299745E-3</v>
+      </c>
+      <c r="AC4">
+        <f>AB4-(Z4*AA4)</f>
+        <v>-1.0702750958445658E-2</v>
+      </c>
+      <c r="AD4">
+        <f>AB4+(Z4*AA4)</f>
+        <v>5.5954221893857094E-3</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>IF(AND(AB4&gt;AC4,AB4&lt;AD4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AQ4" s="2">
         <v>1</v>
       </c>
-      <c r="W4" s="10">
+      <c r="AR4" s="10">
         <v>0.11125</v>
       </c>
-      <c r="X4" s="10">
+      <c r="AS4" s="10">
         <v>0.10065</v>
       </c>
-      <c r="Y4" s="2" t="b">
-        <f>X4&gt;=W4</f>
+      <c r="AT4" s="2" t="b">
+        <f>AS4&gt;=AR4</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="AU4" s="10">
         <v>0.538122354936592</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AV4" s="10">
         <v>0.53243582288817504</v>
       </c>
-      <c r="AB4" t="b">
-        <f>AA4&gt;=Z4</f>
+      <c r="AW4" t="b">
+        <f>AV4&gt;=AU4</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AX4">
+        <f>SQRT( (AR4*(1-AR4)/20000) + (AS4*(1-AS4)/20000) )</f>
+        <v>3.0772797646622901E-3</v>
+      </c>
+      <c r="AY4" s="8">
+        <f>AR4-AS4</f>
+        <v>1.0599999999999998E-2</v>
+      </c>
+      <c r="AZ4">
+        <f>AY4-(BC4*AX4)</f>
+        <v>5.5378747871305308E-3</v>
+      </c>
+      <c r="BA4">
+        <f>AY4+(BC4*AX4)</f>
+        <v>1.5662125212869464E-2</v>
+      </c>
+      <c r="BB4" t="str">
+        <f>IF(AND(AY4&gt;AZ4,AY4&lt;BA4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BC4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD4">
+        <f>SQRT( (AU4*(1-AU4)/20000) + (AV4*(1-AV4)/20000) )</f>
+        <v>4.9874572852689949E-3</v>
+      </c>
+      <c r="BE4" s="8">
+        <f>AU4-AV4</f>
+        <v>5.686532048416959E-3</v>
+      </c>
+      <c r="BF4">
+        <f>BE4-(BC4*BD4)</f>
+        <v>-2.5178351858505376E-3</v>
+      </c>
+      <c r="BG4">
+        <f>BE4+(BC4*BD4)</f>
+        <v>1.3890899282684456E-2</v>
+      </c>
+      <c r="BH4" t="str">
+        <f>IF(AND(BE4&gt;BF4,BE4&lt;BG4),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BP4" s="2">
         <v>1</v>
       </c>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="2" t="b">
-        <f>AF4&gt;=AE4</f>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="2" t="b">
+        <f>BR4&gt;=BQ4</f>
         <v>1</v>
       </c>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" t="b">
-        <f>AI4&gt;=AH4</f>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" t="b">
+        <f>BU4&gt;=BT4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -20505,46 +22767,132 @@
         <f t="shared" ref="T5:T19" si="3">S5&gt;=R5</f>
         <v>1</v>
       </c>
-      <c r="V5" s="2">
+      <c r="U5">
+        <f>SQRT( (O5*(1-O5)/20000) + (P5*(1-P5)/20000) )</f>
+        <v>4.6939315876991629E-3</v>
+      </c>
+      <c r="V5" s="8">
+        <f>O5-P5</f>
+        <v>-5.5500000000000993E-2</v>
+      </c>
+      <c r="W5">
+        <f>V5-(Z5*U5)</f>
+        <v>-6.3221517461766116E-2</v>
+      </c>
+      <c r="X5">
+        <f>V5+(Z5*U5)</f>
+        <v>-4.777848253823587E-2</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>IF(AND(V5&gt;W5,V5&lt;X5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA5">
+        <f>SQRT( (R5*(1-R5)/20000) + (S5*(1-S5)/20000) )</f>
+        <v>4.7625098197379475E-3</v>
+      </c>
+      <c r="AB5" s="8">
+        <f>R5-S5</f>
+        <v>-2.8879299528285052E-2</v>
+      </c>
+      <c r="AC5">
+        <f>AB5-(Z5*AA5)</f>
+        <v>-3.6713628181753978E-2</v>
+      </c>
+      <c r="AD5">
+        <f>AB5+(Z5*AA5)</f>
+        <v>-2.1044970874816125E-2</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>IF(AND(AB5&gt;AC5,AB5&lt;AD5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AQ5" s="2">
         <v>2</v>
       </c>
-      <c r="W5" s="10">
+      <c r="AR5" s="10">
         <v>0.23694999999999999</v>
       </c>
-      <c r="X5" s="10">
+      <c r="AS5" s="10">
         <v>0.28325</v>
       </c>
-      <c r="Y5" s="2" t="b">
-        <f>X5&gt;=W5</f>
+      <c r="AT5" s="2" t="b">
+        <f>AS5&gt;=AR5</f>
         <v>1</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AU5" s="10">
         <v>0.60361030599214605</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AV5" s="10">
         <v>0.62730884407918197</v>
       </c>
-      <c r="AB5" t="b">
-        <f t="shared" ref="AB5:AB19" si="4">AA5&gt;=Z5</f>
+      <c r="AW5" t="b">
+        <f t="shared" ref="AW5:AW19" si="4">AV5&gt;=AU5</f>
         <v>1</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AX5">
+        <f>SQRT( (AR5*(1-AR5)/20000) + (AS5*(1-AS5)/20000) )</f>
+        <v>4.3807769573444393E-3</v>
+      </c>
+      <c r="AY5" s="8">
+        <f>AR5-AS5</f>
+        <v>-4.6300000000000008E-2</v>
+      </c>
+      <c r="AZ5">
+        <f>AY5-(BC5*AX5)</f>
+        <v>-5.3506378094831608E-2</v>
+      </c>
+      <c r="BA5">
+        <f>AY5+(BC5*AX5)</f>
+        <v>-3.9093621905168408E-2</v>
+      </c>
+      <c r="BB5" t="str">
+        <f>IF(AND(AY5&gt;AZ5,AY5&lt;BA5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BC5" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD5">
+        <f>SQRT( (AU5*(1-AU5)/20000) + (AV5*(1-AV5)/20000) )</f>
+        <v>4.8634214433433401E-3</v>
+      </c>
+      <c r="BE5" s="8">
+        <f>AU5-AV5</f>
+        <v>-2.3698538087035925E-2</v>
+      </c>
+      <c r="BF5">
+        <f>BE5-(BC5*BD5)</f>
+        <v>-3.1698866361335717E-2</v>
+      </c>
+      <c r="BG5">
+        <f>BE5+(BC5*BD5)</f>
+        <v>-1.5698209812736133E-2</v>
+      </c>
+      <c r="BH5" t="str">
+        <f>IF(AND(BE5&gt;BF5,BE5&lt;BG5),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BP5" s="2">
         <v>2</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="2" t="b">
-        <f t="shared" ref="AG5:AG19" si="5">AF5&gt;=AE5</f>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="2" t="b">
+        <f t="shared" ref="BS5:BS19" si="5">BR5&gt;=BQ5</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" t="b">
-        <f t="shared" ref="AJ5:AJ19" si="6">AI5&gt;=AH5</f>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" t="b">
+        <f t="shared" ref="BV5:BV19" si="6">BU5&gt;=BT5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -20603,46 +22951,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V6" s="2">
+      <c r="U6">
+        <f t="shared" ref="U6:U19" si="7">SQRT( (O6*(1-O6)/20000) + (P6*(1-P6)/20000) )</f>
+        <v>4.9311986372483517E-3</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6:V19" si="8">O6-P6</f>
+        <v>-0.16080000000000005</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W19" si="9">V6-(Z6*U6)</f>
+        <v>-0.1689118217582736</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X19" si="10">V6+(Z6*U6)</f>
+        <v>-0.15268817824172651</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" ref="Y6:Y19" si="11">IF(AND(V6&gt;W6,V6&lt;X6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA19" si="12">SQRT( (R6*(1-R6)/20000) + (S6*(1-S6)/20000) )</f>
+        <v>4.419713600808165E-3</v>
+      </c>
+      <c r="AB6" s="8">
+        <f t="shared" ref="AB6:AB19" si="13">R6-S6</f>
+        <v>-8.3597372561984962E-2</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC19" si="14">AB6-(Z6*AA6)</f>
+        <v>-9.0867801435314394E-2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD19" si="15">AB6+(Z6*AA6)</f>
+        <v>-7.632694368865553E-2</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" ref="AE6:AE19" si="16">IF(AND(AB6&gt;AC6,AB6&lt;AD6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="AQ6" s="2">
         <v>3</v>
       </c>
-      <c r="W6" s="10">
+      <c r="AR6" s="10">
         <v>0.34139999999999998</v>
       </c>
-      <c r="X6" s="10">
+      <c r="AS6" s="10">
         <v>0.51054999999999995</v>
       </c>
-      <c r="Y6" s="2" t="b">
-        <f t="shared" ref="Y5:Y19" si="7">X6&gt;=W6</f>
+      <c r="AT6" s="2" t="b">
+        <f t="shared" ref="AT6:AT19" si="17">AS6&gt;=AR6</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="AU6" s="10">
         <v>0.657732720898762</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AV6" s="10">
         <v>0.74550466342728405</v>
       </c>
-      <c r="AB6" t="b">
+      <c r="AW6" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AX6">
+        <f t="shared" ref="AX6:AX19" si="18">SQRT( (AR6*(1-AR6)/20000) + (AS6*(1-AS6)/20000) )</f>
+        <v>4.8720362144590015E-3</v>
+      </c>
+      <c r="AY6" s="8">
+        <f t="shared" ref="AY6:AY19" si="19">AR6-AS6</f>
+        <v>-0.16914999999999997</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ref="AZ6:AZ19" si="20">AY6-(BC6*AX6)</f>
+        <v>-0.17716449957278502</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA19" si="21">AY6+(BC6*AX6)</f>
+        <v>-0.16113550042721492</v>
+      </c>
+      <c r="BB6" t="str">
+        <f t="shared" ref="BB6:BB19" si="22">IF(AND(AY6&gt;AZ6,AY6&lt;BA6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BC6" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6:BD19" si="23">SQRT( (AU6*(1-AU6)/20000) + (AV6*(1-AV6)/20000) )</f>
+        <v>4.554381675888227E-3</v>
+      </c>
+      <c r="BE6" s="8">
+        <f t="shared" ref="BE6:BE19" si="24">AU6-AV6</f>
+        <v>-8.7771942528522051E-2</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6:BF19" si="25">BE6-(BC6*BD6)</f>
+        <v>-9.5263900385358188E-2</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" ref="BG6:BG19" si="26">BE6+(BC6*BD6)</f>
+        <v>-8.0279984671685914E-2</v>
+      </c>
+      <c r="BH6" t="str">
+        <f t="shared" ref="BH6:BH19" si="27">IF(AND(BE6&gt;BF6,BE6&lt;BG6),"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BP6" s="2">
         <v>3</v>
       </c>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="2" t="b">
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" t="b">
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -20701,46 +23135,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V7" s="2">
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>4.7221620048448149E-3</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.17380000000000007</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>-0.18156795649796978</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="10"/>
+        <v>-0.16603204350203035</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>3.8762339092698102E-3</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="13"/>
+        <v>-9.0311486039908018E-2</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="14"/>
+        <v>-9.668789082065686E-2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="15"/>
+        <v>-8.3935081259159175E-2</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ7" s="2">
         <v>4</v>
       </c>
-      <c r="W7" s="10">
+      <c r="AR7" s="10">
         <v>0.52070000000000005</v>
       </c>
-      <c r="X7" s="10">
+      <c r="AS7" s="10">
         <v>0.71324999999999905</v>
       </c>
-      <c r="Y7" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT7" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AU7" s="10">
         <v>0.75094477384465996</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AV7" s="10">
         <v>0.85090886224760998</v>
       </c>
-      <c r="AB7" t="b">
+      <c r="AW7" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AX7">
+        <f t="shared" si="18"/>
+        <v>4.7649551283301733E-3</v>
+      </c>
+      <c r="AY7" s="8">
+        <f t="shared" si="19"/>
+        <v>-0.192549999999999</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="20"/>
+        <v>-0.20038835118610213</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="21"/>
+        <v>-0.18471164881389587</v>
+      </c>
+      <c r="BB7" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC7" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="23"/>
+        <v>3.9616265023102587E-3</v>
+      </c>
+      <c r="BE7" s="8">
+        <f t="shared" si="24"/>
+        <v>-9.9964088402950013E-2</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="25"/>
+        <v>-0.10648096399925039</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="26"/>
+        <v>-9.3447212806649638E-2</v>
+      </c>
+      <c r="BH7" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP7" s="2">
         <v>4</v>
       </c>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="2" t="b">
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" t="b">
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="10"/>
+      <c r="BV7" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -20799,46 +23319,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="2">
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>4.5190000968134527E-3</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="8"/>
+        <v>-6.3950000000000062E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>-7.1383755159258197E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="10"/>
+        <v>-5.6516244840741935E-2</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="12"/>
+        <v>3.5664337880600191E-3</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="13"/>
+        <v>-3.3210090025109995E-2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="14"/>
+        <v>-3.9076873606468727E-2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="15"/>
+        <v>-2.7343306443751263E-2</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ8" s="2">
         <v>5</v>
       </c>
-      <c r="W8" s="10">
+      <c r="AR8" s="10">
         <v>0.66739999999999999</v>
       </c>
-      <c r="X8" s="10">
+      <c r="AS8" s="10">
         <v>0.74329999999999996</v>
       </c>
-      <c r="Y8" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT8" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="AU8" s="10">
         <v>0.82709118527470504</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AV8" s="10">
         <v>0.86652734584774405</v>
       </c>
-      <c r="AB8" t="b">
+      <c r="AW8" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AX8">
+        <f t="shared" si="18"/>
+        <v>4.5430295508614073E-3</v>
+      </c>
+      <c r="AY8" s="8">
+        <f t="shared" si="19"/>
+        <v>-7.5899999999999967E-2</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="20"/>
+        <v>-8.3373283611166984E-2</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="21"/>
+        <v>-6.842671638883295E-2</v>
+      </c>
+      <c r="BB8" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC8" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="23"/>
+        <v>3.5963110353624643E-3</v>
+      </c>
+      <c r="BE8" s="8">
+        <f t="shared" si="24"/>
+        <v>-3.9436160573039003E-2</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="25"/>
+        <v>-4.5352092226210255E-2</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="26"/>
+        <v>-3.3520228919867751E-2</v>
+      </c>
+      <c r="BH8" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP8" s="2">
         <v>5</v>
       </c>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="2" t="b">
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" t="b">
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="10"/>
+      <c r="BV8" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -20897,46 +23503,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V9" s="2">
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>4.2420724887724396E-3</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="8"/>
+        <v>-8.7799999999999989E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>-9.4778209244030659E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>-8.0821790755969319E-2</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="12"/>
+        <v>3.2909376395338875E-3</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="13"/>
+        <v>-4.5598704441049076E-2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="14"/>
+        <v>-5.1012296858082319E-2</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="15"/>
+        <v>-4.0185112024015833E-2</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ9" s="2">
         <v>6</v>
       </c>
-      <c r="W9" s="10">
+      <c r="AR9" s="10">
         <v>0.72314999999999996</v>
       </c>
-      <c r="X9" s="10">
+      <c r="AS9" s="10">
         <v>0.818549999999999</v>
       </c>
-      <c r="Y9" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT9" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="AU9" s="10">
         <v>0.85607883890064396</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AV9" s="10">
         <v>0.905650588931319</v>
       </c>
-      <c r="AB9" t="b">
+      <c r="AW9" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AX9">
+        <f t="shared" si="18"/>
+        <v>4.175703383862416E-3</v>
+      </c>
+      <c r="AY9" s="8">
+        <f t="shared" si="19"/>
+        <v>-9.5399999999999041E-2</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="20"/>
+        <v>-0.10226903206645271</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="21"/>
+        <v>-8.8530967933545368E-2</v>
+      </c>
+      <c r="BB9" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC9" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="23"/>
+        <v>3.2299803419436109E-3</v>
+      </c>
+      <c r="BE9" s="8">
+        <f t="shared" si="24"/>
+        <v>-4.9571750030675044E-2</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="25"/>
+        <v>-5.4885067693172286E-2</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="26"/>
+        <v>-4.4258432368177801E-2</v>
+      </c>
+      <c r="BH9" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP9" s="2">
         <v>6</v>
       </c>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="2" t="b">
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="10"/>
+      <c r="BS9" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" t="b">
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="10"/>
+      <c r="BV9" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -20995,46 +23687,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V10" s="2">
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>4.0592682530229511E-3</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="8"/>
+        <v>-2.9800000000000049E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>-3.6477496276222807E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>-2.3122503723777294E-2</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="12"/>
+        <v>3.1076888174903137E-3</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" si="13"/>
+        <v>-1.5455241556461941E-2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="14"/>
+        <v>-2.0567389661233507E-2</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="15"/>
+        <v>-1.0343093451690374E-2</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ10" s="2">
         <v>7</v>
       </c>
-      <c r="W10" s="10">
+      <c r="AR10" s="10">
         <v>0.81059999999999999</v>
       </c>
-      <c r="X10" s="10">
+      <c r="AS10" s="10">
         <v>0.83004999999999995</v>
       </c>
-      <c r="Y10" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT10" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AU10" s="10">
         <v>0.90153674406885198</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AV10" s="10">
         <v>0.91163871934271801</v>
       </c>
-      <c r="AB10" t="b">
+      <c r="AW10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AX10">
+        <f t="shared" si="18"/>
+        <v>3.8379332817285927E-3</v>
+      </c>
+      <c r="AY10" s="8">
+        <f t="shared" si="19"/>
+        <v>-1.9449999999999967E-2</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="20"/>
+        <v>-2.5763400248443501E-2</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="21"/>
+        <v>-1.3136599751556432E-2</v>
+      </c>
+      <c r="BB10" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC10" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="23"/>
+        <v>2.9096546865605231E-3</v>
+      </c>
+      <c r="BE10" s="8">
+        <f t="shared" si="24"/>
+        <v>-1.0101975273866026E-2</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="25"/>
+        <v>-1.4888357233258088E-2</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="26"/>
+        <v>-5.3155933144739655E-3</v>
+      </c>
+      <c r="BH10" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP10" s="2">
         <v>7</v>
       </c>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="2" t="b">
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="10"/>
+      <c r="BS10" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" t="b">
+      <c r="BT10" s="10"/>
+      <c r="BU10" s="10"/>
+      <c r="BV10" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -21093,46 +23871,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V11" s="2">
+      <c r="U11">
+        <f t="shared" si="7"/>
+        <v>3.8663671579403916E-3</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="8"/>
+        <v>-2.9200000000000004E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>-3.5560173974811947E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="10"/>
+        <v>-2.2839826025188061E-2</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="12"/>
+        <v>2.9353384316863247E-3</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" si="13"/>
+        <v>-1.5147523735038027E-2</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="14"/>
+        <v>-1.9976155455162032E-2</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="15"/>
+        <v>-1.0318892014914021E-2</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ11" s="2">
         <v>8</v>
       </c>
-      <c r="W11" s="10">
+      <c r="AR11" s="10">
         <v>0.85880000000000001</v>
       </c>
-      <c r="X11" s="10">
+      <c r="AS11" s="10">
         <v>0.87044999999999995</v>
       </c>
-      <c r="Y11" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT11" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="AU11" s="10">
         <v>0.92658259975329504</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AV11" s="10">
         <v>0.93264103108112595</v>
       </c>
-      <c r="AB11" t="b">
+      <c r="AW11" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AX11">
+        <f t="shared" si="18"/>
+        <v>3.42074083715794E-3</v>
+      </c>
+      <c r="AY11" s="8">
+        <f t="shared" si="19"/>
+        <v>-1.1649999999999938E-2</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="20"/>
+        <v>-1.727711867712475E-2</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="21"/>
+        <v>-6.0228813228751267E-3</v>
+      </c>
+      <c r="BB11" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC11" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD11">
+        <f t="shared" si="23"/>
+        <v>2.5578215713061409E-3</v>
+      </c>
+      <c r="BE11" s="8">
+        <f t="shared" si="24"/>
+        <v>-6.0584313278309043E-3</v>
+      </c>
+      <c r="BF11">
+        <f t="shared" si="25"/>
+        <v>-1.0266047812629506E-2</v>
+      </c>
+      <c r="BG11">
+        <f t="shared" si="26"/>
+        <v>-1.8508148430323029E-3</v>
+      </c>
+      <c r="BH11" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP11" s="2">
         <v>8</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="2" t="b">
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" t="b">
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="10"/>
+      <c r="BV11" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -21191,46 +24055,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V12" s="2">
+      <c r="U12">
+        <f t="shared" si="7"/>
+        <v>3.5602249753351311E-3</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.0849999999999027E-2</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>-1.6706570084425318E-2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>-4.9934299155727363E-3</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="12"/>
+        <v>2.6730414245360991E-3</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="13"/>
+        <v>-5.6367494533929863E-3</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="14"/>
+        <v>-1.0033902596754869E-2</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="15"/>
+        <v>-1.2395963100311031E-3</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ12" s="2">
         <v>9</v>
       </c>
-      <c r="W12" s="10">
+      <c r="AR12" s="10">
         <v>0.90884999999999905</v>
       </c>
-      <c r="X12" s="10">
+      <c r="AS12" s="10">
         <v>0.90229999999999999</v>
       </c>
-      <c r="Y12" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT12" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AU12" s="10">
         <v>0.95260466002339494</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AV12" s="10">
         <v>0.94920343344871705</v>
       </c>
-      <c r="AB12" t="b">
+      <c r="AW12" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AX12">
+        <f t="shared" si="18"/>
+        <v>2.924007417056263E-3</v>
+      </c>
+      <c r="AY12" s="8">
+        <f t="shared" si="19"/>
+        <v>6.5499999999990566E-3</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="20"/>
+        <v>1.7400077989415041E-3</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="21"/>
+        <v>1.1359992201056608E-2</v>
+      </c>
+      <c r="BB12" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC12" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" si="23"/>
+        <v>2.1606167765593127E-3</v>
+      </c>
+      <c r="BE12" s="8">
+        <f t="shared" si="24"/>
+        <v>3.4012265746778958E-3</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="25"/>
+        <v>-1.5298802276217383E-4</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="26"/>
+        <v>6.9554411721179654E-3</v>
+      </c>
+      <c r="BH12" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP12" s="2">
         <v>9</v>
       </c>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="2" t="b">
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" t="b">
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="10"/>
+      <c r="BV12" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -21289,46 +24239,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V13" s="2">
+      <c r="U13">
+        <f t="shared" si="7"/>
+        <v>3.4868347931899502E-3</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="8"/>
+        <v>-3.0849999999999933E-2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="9"/>
+        <v>-3.6585843234797404E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="10"/>
+        <v>-2.5114156765202466E-2</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="12"/>
+        <v>2.61366943036124E-3</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="13"/>
+        <v>-1.6020462471758035E-2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="14"/>
+        <v>-2.0319948684702275E-2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="15"/>
+        <v>-1.1720976258813794E-2</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ13" s="2">
         <v>10</v>
       </c>
-      <c r="W13" s="10">
+      <c r="AR13" s="10">
         <v>0.90710000000000002</v>
       </c>
-      <c r="X13" s="10">
+      <c r="AS13" s="10">
         <v>0.93089999999999995</v>
       </c>
-      <c r="Y13" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT13" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="AU13" s="10">
         <v>0.95169357609274596</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AV13" s="10">
         <v>0.96407882462796601</v>
       </c>
-      <c r="AB13" t="b">
+      <c r="AW13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AX13">
+        <f t="shared" si="18"/>
+        <v>2.7257547578606557E-3</v>
+      </c>
+      <c r="AY13" s="8">
+        <f t="shared" si="19"/>
+        <v>-2.3799999999999932E-2</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="20"/>
+        <v>-2.8283866576680711E-2</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="21"/>
+        <v>-1.9316133423319153E-2</v>
+      </c>
+      <c r="BB13" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC13" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="23"/>
+        <v>2.0075327873844587E-3</v>
+      </c>
+      <c r="BE13" s="8">
+        <f t="shared" si="24"/>
+        <v>-1.238524853522005E-2</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="25"/>
+        <v>-1.5687639970467484E-2</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="26"/>
+        <v>-9.0828570999726167E-3</v>
+      </c>
+      <c r="BH13" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP13" s="2">
         <v>10</v>
       </c>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="2" t="b">
+      <c r="BQ13" s="10"/>
+      <c r="BR13" s="10"/>
+      <c r="BS13" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" t="b">
+      <c r="BT13" s="10"/>
+      <c r="BU13" s="10"/>
+      <c r="BV13" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -21387,46 +24423,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V14" s="2">
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>3.302051918883166E-3</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.5249999999999986E-2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>-2.0681875406562793E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="10"/>
+        <v>-9.8181245934371789E-3</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="12"/>
+        <v>2.4615576020466639E-3</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="13"/>
+        <v>-7.9391070440869571E-3</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="14"/>
+        <v>-1.1988369299453719E-2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="15"/>
+        <v>-3.889844788720195E-3</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ14" s="2">
         <v>11</v>
       </c>
-      <c r="W14" s="10">
+      <c r="AR14" s="10">
         <v>0.93789999999999996</v>
       </c>
-      <c r="X14" s="10">
+      <c r="AS14" s="10">
         <v>0.94489999999999996</v>
       </c>
-      <c r="Y14" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT14" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="AU14" s="10">
         <v>0.96771084131505902</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AV14" s="10">
         <v>0.97135369133792904</v>
       </c>
-      <c r="AB14" t="b">
+      <c r="AW14" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AX14">
+        <f t="shared" si="18"/>
+        <v>2.3484844048875446E-3</v>
+      </c>
+      <c r="AY14" s="8">
+        <f t="shared" si="19"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="20"/>
+        <v>-1.0863256846040018E-2</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="21"/>
+        <v>-3.1367431539599954E-3</v>
+      </c>
+      <c r="BB14" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC14" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="23"/>
+        <v>1.7186079625450942E-3</v>
+      </c>
+      <c r="BE14" s="8">
+        <f t="shared" si="24"/>
+        <v>-3.6428500228700145E-3</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="25"/>
+        <v>-6.4699601212566942E-3</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="26"/>
+        <v>-8.1573992448333429E-4</v>
+      </c>
+      <c r="BH14" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP14" s="2">
         <v>11</v>
       </c>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="2" t="b">
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" t="b">
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="10"/>
+      <c r="BV14" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -21485,46 +24607,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V15" s="2">
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>3.3099839501121455E-3</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.7599999999999949E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>-2.304492359793443E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>-1.2155076402065468E-2</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="12"/>
+        <v>2.4680408098193473E-3</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="13"/>
+        <v>-9.1611056879630226E-3</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="14"/>
+        <v>-1.3221032820115849E-2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="15"/>
+        <v>-5.1011785558101961E-3</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>12</v>
       </c>
-      <c r="W15" s="10">
+      <c r="AR15" s="10">
         <v>0.93920000000000003</v>
       </c>
-      <c r="X15" s="10">
+      <c r="AS15" s="10">
         <v>0.94774999999999998</v>
       </c>
-      <c r="Y15" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT15" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AU15" s="10">
         <v>0.96838729854353101</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AV15" s="10">
         <v>0.97283272236569895</v>
       </c>
-      <c r="AB15" t="b">
+      <c r="AW15" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AX15">
+        <f t="shared" si="18"/>
+        <v>2.3089315440263706E-3</v>
+      </c>
+      <c r="AY15" s="8">
+        <f t="shared" si="19"/>
+        <v>-8.5499999999999465E-3</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="20"/>
+        <v>-1.2348192389923327E-2</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="21"/>
+        <v>-4.7518076100765668E-3</v>
+      </c>
+      <c r="BB15" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC15" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="23"/>
+        <v>1.6888243725049538E-3</v>
+      </c>
+      <c r="BE15" s="8">
+        <f t="shared" si="24"/>
+        <v>-4.4454238221679487E-3</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="25"/>
+        <v>-7.2235399149385981E-3</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="26"/>
+        <v>-1.6673077293972998E-3</v>
+      </c>
+      <c r="BH15" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP15" s="2">
         <v>12</v>
       </c>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="2" t="b">
+      <c r="BQ15" s="10"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" t="b">
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="10"/>
+      <c r="BV15" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -21583,46 +24791,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V16" s="2">
+      <c r="U16">
+        <f t="shared" si="7"/>
+        <v>3.3410261148335905E-3</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" si="8"/>
+        <v>-2.0299999999998986E-2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>-2.5795987958900243E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>-1.4804012041097729E-2</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="12"/>
+        <v>2.4934142929076992E-3</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="13"/>
+        <v>-1.0550823607940907E-2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="14"/>
+        <v>-1.4652490119774073E-2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="15"/>
+        <v>-6.4491570961077412E-3</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ16" s="2">
         <v>13</v>
       </c>
-      <c r="W16" s="10">
+      <c r="AR16" s="10">
         <v>0.93399999999999905</v>
       </c>
-      <c r="X16" s="10">
+      <c r="AS16" s="10">
         <v>0.94729999999999903</v>
       </c>
-      <c r="Y16" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT16" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="AU16" s="10">
         <v>0.96567978711092906</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AV16" s="10">
         <v>0.97260098285955099</v>
       </c>
-      <c r="AB16" t="b">
+      <c r="AW16" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AX16">
+        <f t="shared" si="18"/>
+        <v>2.3618500164066481E-3</v>
+      </c>
+      <c r="AY16" s="8">
+        <f t="shared" si="19"/>
+        <v>-1.3299999999999979E-2</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="20"/>
+        <v>-1.7185243276988914E-2</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="21"/>
+        <v>-9.4147567230110432E-3</v>
+      </c>
+      <c r="BB16" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC16" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="23"/>
+        <v>1.7290264150166444E-3</v>
+      </c>
+      <c r="BE16" s="8">
+        <f t="shared" si="24"/>
+        <v>-6.9211957486219333E-3</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="25"/>
+        <v>-9.765444201324313E-3</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="26"/>
+        <v>-4.0769472959195537E-3</v>
+      </c>
+      <c r="BH16" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP16" s="2">
         <v>13</v>
       </c>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="2" t="b">
+      <c r="BQ16" s="10"/>
+      <c r="BR16" s="10"/>
+      <c r="BS16" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" t="b">
+      <c r="BT16" s="10"/>
+      <c r="BU16" s="10"/>
+      <c r="BV16" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -21681,46 +24975,132 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17" s="2">
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>3.2139041483840239E-3</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="8"/>
+        <v>4.5000000000094964E-4</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>-4.8368723240907697E-3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>5.736872324092669E-3</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z17" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="12"/>
+        <v>2.3900277672707386E-3</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="13"/>
+        <v>2.433181583910704E-4</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="14"/>
+        <v>-3.6882775187692942E-3</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="15"/>
+        <v>4.174913835551435E-3</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ17" s="2">
         <v>14</v>
       </c>
-      <c r="W17" s="10">
+      <c r="AR17" s="10">
         <v>0.95349999999999902</v>
       </c>
-      <c r="X17" s="10">
+      <c r="AS17" s="10">
         <v>0.95039999999999902</v>
       </c>
-      <c r="Y17" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT17" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="AU17" s="10">
         <v>0.97582137854312001</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AV17" s="10">
         <v>0.97420824719669596</v>
       </c>
-      <c r="AB17" t="b">
+      <c r="AW17" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AX17">
+        <f t="shared" si="18"/>
+        <v>2.1386630169337312E-3</v>
+      </c>
+      <c r="AY17" s="8">
+        <f t="shared" si="19"/>
+        <v>3.0999999999999917E-3</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="20"/>
+        <v>-4.1810066285599603E-4</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="21"/>
+        <v>6.6181006628559793E-3</v>
+      </c>
+      <c r="BB17" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC17" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="23"/>
+        <v>1.560777915207064E-3</v>
+      </c>
+      <c r="BE17" s="8">
+        <f t="shared" si="24"/>
+        <v>1.613131346424046E-3</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="25"/>
+        <v>-9.5434832409157415E-4</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="26"/>
+        <v>4.1806110169396657E-3</v>
+      </c>
+      <c r="BH17" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP17" s="2">
         <v>14</v>
       </c>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="2" t="b">
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" t="b">
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="10"/>
+      <c r="BV17" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
       <c r="F18" s="2">
         <v>15</v>
       </c>
@@ -21767,46 +25147,132 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V18" s="2">
+      <c r="U18">
+        <f t="shared" si="7"/>
+        <v>3.1917272557347495E-3</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.4999999999998348E-4</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>-5.4003913356836467E-3</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="10"/>
+        <v>5.1003913356836798E-3</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z18" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="12"/>
+        <v>2.3722319175112582E-3</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" si="13"/>
+        <v>-7.4453382772010634E-5</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="14"/>
+        <v>-3.9767748870780306E-3</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="15"/>
+        <v>3.8278681215340093E-3</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ18" s="2">
         <v>15</v>
       </c>
-      <c r="W18" s="10">
+      <c r="AR18" s="10">
         <v>0.95640000000000003</v>
       </c>
-      <c r="X18" s="11">
+      <c r="AS18" s="11">
         <v>0.95625000000000004</v>
       </c>
-      <c r="Y18" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT18" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="AU18" s="10">
         <v>0.97732879961945496</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AV18" s="11">
         <v>0.97724842282786095</v>
       </c>
-      <c r="AB18" t="b">
+      <c r="AW18" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AX18">
+        <f t="shared" si="18"/>
+        <v>2.0437095867563955E-3</v>
+      </c>
+      <c r="AY18" s="8">
+        <f t="shared" si="19"/>
+        <v>1.4999999999998348E-4</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="20"/>
+        <v>-3.2119022702142871E-3</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="21"/>
+        <v>3.5119022702142541E-3</v>
+      </c>
+      <c r="BB18" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC18" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="23"/>
+        <v>1.4898181090685107E-3</v>
+      </c>
+      <c r="BE18" s="8">
+        <f t="shared" si="24"/>
+        <v>8.0376791594005681E-5</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="25"/>
+        <v>-2.3703739978236946E-3</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="26"/>
+        <v>2.531127581011706E-3</v>
+      </c>
+      <c r="BH18" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP18" s="2">
         <v>15</v>
       </c>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="2" t="b">
+      <c r="BQ18" s="10"/>
+      <c r="BR18" s="10"/>
+      <c r="BS18" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" t="b">
+      <c r="BT18" s="10"/>
+      <c r="BU18" s="10"/>
+      <c r="BV18" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <v>16</v>
       </c>
@@ -21853,67 +25319,157 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="2">
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>3.2097185040124688E-3</v>
+      </c>
+      <c r="V19" s="8">
+        <f t="shared" si="8"/>
+        <v>1.6499999999990411E-3</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="9"/>
+        <v>-3.6299869391014702E-3</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="10"/>
+        <v>6.9299869390995524E-3</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="Z19" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="12"/>
+        <v>2.3866576591891793E-3</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" si="13"/>
+        <v>8.5503927292995829E-4</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="14"/>
+        <v>-3.0710125764362413E-3</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="15"/>
+        <v>4.7810911222961579E-3</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="AQ19" s="2">
         <v>16</v>
       </c>
-      <c r="W19" s="10">
+      <c r="AR19" s="10">
         <v>0.95514999999999906</v>
       </c>
-      <c r="X19" s="10">
+      <c r="AS19" s="10">
         <v>0.95465</v>
       </c>
-      <c r="Y19" s="2" t="b">
-        <f t="shared" si="7"/>
+      <c r="AT19" s="2" t="b">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="AU19" s="10">
         <v>0.97667739872444703</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AV19" s="10">
         <v>0.976416965592108</v>
       </c>
-      <c r="AB19" t="b">
+      <c r="AW19" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AX19">
+        <f t="shared" si="18"/>
+        <v>2.0752331796692254E-3</v>
+      </c>
+      <c r="AY19" s="8">
+        <f t="shared" si="19"/>
+        <v>4.9999999999905675E-4</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="20"/>
+        <v>-2.913758580556819E-3</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="21"/>
+        <v>3.9137585805549321E-3</v>
+      </c>
+      <c r="BB19" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="BC19" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" si="23"/>
+        <v>1.5133659907851558E-3</v>
+      </c>
+      <c r="BE19" s="8">
+        <f t="shared" si="24"/>
+        <v>2.6043313233903298E-4</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="25"/>
+        <v>-2.2290539225025482E-3</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="26"/>
+        <v>2.7499201871806142E-3</v>
+      </c>
+      <c r="BH19" t="str">
+        <f t="shared" si="27"/>
+        <v>T</v>
+      </c>
+      <c r="BP19" s="2">
         <v>16</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="2" t="b">
+      <c r="BQ19" s="10"/>
+      <c r="BR19" s="10"/>
+      <c r="BS19" s="2" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" t="b">
+      <c r="BT19" s="10"/>
+      <c r="BU19" s="10"/>
+      <c r="BV19" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.3">
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AD1:AJ1"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="O2:Q2"/>
+  <mergeCells count="20">
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="F1:L1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AQ1:AW1"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BP1:BV1"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BS2"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="BD2:BH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21923,26 +25479,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD68B929-7AE8-4635-9840-376819E107A1}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="19" width="9" style="2"/>
+    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="15" width="9" style="2"/>
+    <col min="22" max="24" width="8.88671875" style="2"/>
+    <col min="25" max="25" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -21955,27 +25514,27 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="V1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -21988,33 +25547,33 @@
       <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="P2" s="5" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="W2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -22027,7 +25586,7 @@
       <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -22038,7 +25597,7 @@
         <v>14</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
@@ -22048,18 +25607,48 @@
       <c r="N3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="1" t="s">
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="25"/>
+      <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="Y3" s="21" t="s">
         <v>14</v>
       </c>
+      <c r="Z3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="28" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -22099,21 +25688,67 @@
         <f>M4&lt;=L4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="2">
+      <c r="O4" t="e">
+        <f>SQRT( (L4*(1-L4)/17379) + (M4*(1-M4)/17379) )</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" t="e">
+        <f>L3-M3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" t="e">
+        <f>P4-(S4*O4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R4" t="e">
+        <f>(P4+(S4*O4))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="T4" t="e">
+        <f>IF(AND(P4&gt;Q4,P4&lt;R4),"T","F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V4" s="29">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
         <v>0.71879681182551902</v>
       </c>
-      <c r="R4">
+      <c r="X4">
         <v>0.993951486357596</v>
       </c>
-      <c r="S4" s="2" t="b">
-        <f>R4&lt;=Q4</f>
+      <c r="Y4" s="2" t="b">
+        <f>X4&lt;=W4</f>
         <v>0</v>
       </c>
+      <c r="Z4">
+        <f>SQRT((W4*(1-W4)/17379)+((X4*(1-X4)/17379)))</f>
+        <v>3.4607104372575276E-3</v>
+      </c>
+      <c r="AA4">
+        <f>W4-X4</f>
+        <v>-0.27515467453207698</v>
+      </c>
+      <c r="AB4">
+        <f>AA4-(AD4*Z4)</f>
+        <v>-0.28084754320136562</v>
+      </c>
+      <c r="AC4">
+        <f>(AA4+(AD4*Z4))</f>
+        <v>-0.26946180586278834</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>IF(AND(AA4&gt;AB4,AA4&lt;AC4),"T","F")</f>
+        <v>T</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -22153,21 +25788,44 @@
         <f t="shared" ref="N5:N15" si="1">M5&lt;=L5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="2">
+      <c r="V5" s="2">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>0.63967209454372298</v>
       </c>
-      <c r="R5">
+      <c r="X5">
         <v>0.99382200169364698</v>
       </c>
-      <c r="S5" s="2" t="b">
-        <f t="shared" ref="S5:S15" si="2">R5&lt;=Q5</f>
+      <c r="Y5" s="2" t="b">
+        <f t="shared" ref="Y5:Y15" si="2">X5&lt;=W5</f>
         <v>0</v>
       </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z15" si="3">SQRT((W5*(1-W5)/17379)+((X5*(1-X5)/17379)))</f>
+        <v>3.6899792193951192E-3</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA15" si="4">W5-X5</f>
+        <v>-0.354149907149924</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB15" si="5">AA5-(AD5*Z5)</f>
+        <v>-0.360219922965829</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AC15" si="6">(AA5+(AD5*Z5))</f>
+        <v>-0.34807989133401901</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" ref="AE5:AE15" si="7">IF(AND(AA5&gt;AB5,AA5&lt;AC5),"T","F")</f>
+        <v>T</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -22207,21 +25865,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="2">
+      <c r="V6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <v>0.63369111091964603</v>
       </c>
-      <c r="R6">
+      <c r="X6">
         <v>0.96662241588236597</v>
       </c>
-      <c r="S6" s="2" t="b">
+      <c r="Y6" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>3.9004102721372082E-3</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
+        <v>-0.33293130496271994</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>-0.33934747986038566</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="6"/>
+        <v>-0.32651513006505423</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -22261,21 +25942,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="2">
+      <c r="V7" s="2">
         <v>4</v>
       </c>
-      <c r="Q7">
+      <c r="W7">
         <v>0.62345306215595397</v>
       </c>
-      <c r="R7">
+      <c r="X7">
         <v>0.96827016708342895</v>
       </c>
-      <c r="S7" s="2" t="b">
+      <c r="Y7" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>3.9084581801217639E-3</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="4"/>
+        <v>-0.34481710492747497</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="5"/>
+        <v>-0.35124651863377526</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="6"/>
+        <v>-0.33838769122117468</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -22315,21 +26019,44 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P8" s="2">
+      <c r="V8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="W8">
         <v>0.67388037381239796</v>
       </c>
-      <c r="R8">
+      <c r="X8">
         <v>0.57359213254139496</v>
       </c>
-      <c r="S8" s="2" t="b">
+      <c r="Y8" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>5.1690442045896918E-3</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="4"/>
+        <v>0.100288241271003</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="5"/>
+        <v>9.1785163554452959E-2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="6"/>
+        <v>0.10879131898755304</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -22369,21 +26096,44 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P9" s="2">
+      <c r="V9" s="2">
         <v>6</v>
       </c>
-      <c r="Q9">
+      <c r="W9">
         <v>0.50847163133432005</v>
       </c>
-      <c r="R9">
+      <c r="X9">
         <v>0.42601887079835798</v>
       </c>
-      <c r="S9" s="2" t="b">
+      <c r="Y9" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>5.3339753626193984E-3</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="4"/>
+        <v>8.2452760535962066E-2</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="5"/>
+        <v>7.3678371064453158E-2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="6"/>
+        <v>9.1227150007470975E-2</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -22423,21 +26173,44 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P10" s="2">
+      <c r="V10" s="2">
         <v>7</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
         <v>0.50452023329263196</v>
       </c>
-      <c r="R10">
+      <c r="X10">
         <v>0.42263777444553802</v>
       </c>
-      <c r="S10" s="2" t="b">
+      <c r="Y10" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>5.3314916418612497E-3</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="4"/>
+        <v>8.1882458847093942E-2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="5"/>
+        <v>7.3112155096232187E-2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="6"/>
+        <v>9.0652762597955697E-2</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -22477,21 +26250,44 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P11" s="2">
+      <c r="V11" s="2">
         <v>8</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="W11" s="17">
         <v>0.403105371593171</v>
       </c>
-      <c r="R11">
+      <c r="X11">
         <v>0.42203947450206603</v>
       </c>
-      <c r="S11" s="2" t="b">
+      <c r="Y11" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>5.280190021778629E-3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="4"/>
+        <v>-1.8934102908895023E-2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="5"/>
+        <v>-2.7620015494720866E-2</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="6"/>
+        <v>-1.0248190323069178E-2</v>
+      </c>
+      <c r="AD11" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -22531,21 +26327,44 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="2">
+      <c r="V12" s="2">
         <v>9</v>
       </c>
-      <c r="Q12">
+      <c r="W12">
         <v>0.410621526432212</v>
       </c>
-      <c r="R12">
+      <c r="X12">
         <v>0.43475321260715499</v>
       </c>
-      <c r="S12" s="2" t="b">
+      <c r="Y12" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>5.297710010353068E-3</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="4"/>
+        <v>-2.413168617494299E-2</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="5"/>
+        <v>-3.2846419141973789E-2</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="6"/>
+        <v>-1.5416953207912193E-2</v>
+      </c>
+      <c r="AD12" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -22585,21 +26404,44 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P13" s="2">
+      <c r="V13" s="2">
         <v>10</v>
       </c>
-      <c r="Q13">
+      <c r="W13">
         <v>0.41579820200499901</v>
       </c>
-      <c r="R13" s="17">
+      <c r="X13" s="17">
         <v>0.39895250267980398</v>
       </c>
-      <c r="S13" s="2" t="b">
+      <c r="Y13" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>5.2701868751541233E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="4"/>
+        <v>1.6845699325195029E-2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="5"/>
+        <v>8.1762419155664966E-3</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="6"/>
+        <v>2.551515673482356E-2</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F14" s="2">
         <v>11</v>
       </c>
@@ -22627,21 +26469,44 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P14" s="2">
+      <c r="V14" s="2">
         <v>11</v>
       </c>
-      <c r="Q14">
+      <c r="W14">
         <v>0.40844452834124401</v>
       </c>
-      <c r="R14">
+      <c r="X14">
         <v>0.40892040454801598</v>
       </c>
-      <c r="S14" s="2" t="b">
+      <c r="Y14" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>5.2735848324419214E-3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>-4.7587620677197462E-4</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="5"/>
+        <v>-9.1509232561389348E-3</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="6"/>
+        <v>8.1991708425949855E-3</v>
+      </c>
+      <c r="AD14" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F15" s="2">
         <v>12</v>
       </c>
@@ -22669,63 +26534,86 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P15" s="2">
+      <c r="V15" s="2">
         <v>12</v>
       </c>
-      <c r="Q15">
+      <c r="W15">
         <v>0.41706624327446501</v>
       </c>
-      <c r="R15">
+      <c r="X15">
         <v>0.41706624327446501</v>
       </c>
-      <c r="S15" s="2" t="b">
+      <c r="Y15" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>5.2895013089627662E-3</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="5"/>
+        <v>-8.7012296532437503E-3</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="6"/>
+        <v>8.7012296532437503E-3</v>
+      </c>
+      <c r="AD15" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="U17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="13"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="13"/>
-      <c r="U18" s="2"/>
+      <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+    <row r="20" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+    <row r="21" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+    <row r="22" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
@@ -22738,9 +26626,9 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
@@ -22752,26 +26640,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751C921E-2DC6-4147-8CBF-9AD553B6FB26}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:R11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="19" width="9" style="2"/>
+    <col min="9" max="9" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="2" customWidth="1"/>
+    <col min="11" max="19" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -22784,27 +26673,27 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="15" t="s">
+      <c r="O1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -22817,33 +26706,33 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2"/>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="U2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="V2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -22856,7 +26745,7 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -22867,28 +26756,28 @@
         <v>14</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="X3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -22914,35 +26803,38 @@
         <f>H4&lt;=G4</f>
         <v>0</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" s="2">
+      <c r="J4" t="e">
+        <f>SQRT((G4*(1-G4)/20640)+(H4*(1-H4)/20640))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="18">
+      <c r="P4" s="18">
         <v>1.083081856</v>
       </c>
-      <c r="M4" s="18">
+      <c r="Q4" s="18">
         <v>1.083081856</v>
       </c>
-      <c r="N4" s="2" t="b">
-        <f>M4&lt;=L4</f>
+      <c r="R4" s="2" t="b">
+        <f>Q4&lt;=P4</f>
         <v>1</v>
       </c>
-      <c r="P4" s="2">
+      <c r="U4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="V4">
         <v>0.96400794700000003</v>
       </c>
-      <c r="R4">
+      <c r="W4">
         <v>0.96400794706734805</v>
       </c>
-      <c r="S4" s="2" t="b">
-        <f>R4&lt;=Q4</f>
+      <c r="X4" s="2" t="b">
+        <f>W4&lt;=V4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -22969,34 +26861,34 @@
         <v>1</v>
       </c>
       <c r="J5"/>
-      <c r="K5" s="2">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="18">
+      <c r="P5" s="18">
         <v>0.76429848300000003</v>
       </c>
-      <c r="M5" s="18">
+      <c r="Q5" s="18">
         <v>0.91153136899999998</v>
       </c>
-      <c r="N5" s="2" t="b">
-        <f t="shared" ref="N5:N11" si="1">M5&lt;=L5</f>
+      <c r="R5" s="2" t="b">
+        <f t="shared" ref="R5:R11" si="1">Q5&lt;=P5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="2">
+      <c r="U5" s="2">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="V5">
         <v>0.69532535699999998</v>
       </c>
-      <c r="R5">
+      <c r="W5">
         <v>0.82125682231167396</v>
       </c>
-      <c r="S5" s="2" t="b">
-        <f t="shared" ref="S5:S11" si="2">R5&lt;=Q5</f>
+      <c r="X5" s="2" t="b">
+        <f t="shared" ref="X5:X11" si="2">W5&lt;=V5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -23023,34 +26915,34 @@
         <v>1</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="2">
+      <c r="O6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="18">
+      <c r="P6" s="18">
         <v>0.65783863799999998</v>
       </c>
-      <c r="M6" s="18">
+      <c r="Q6" s="18">
         <v>1.0542263080000001</v>
       </c>
-      <c r="N6" s="2" t="b">
+      <c r="R6" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="2">
+      <c r="U6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="V6">
         <v>0.61906000800000005</v>
       </c>
-      <c r="R6">
+      <c r="W6">
         <v>0.82391279212434898</v>
       </c>
-      <c r="S6" s="2" t="b">
+      <c r="X6" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -23077,34 +26969,34 @@
         <v>1</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="18">
+      <c r="P7" s="18">
         <v>0.94857614800000001</v>
       </c>
-      <c r="M7" s="18">
+      <c r="Q7" s="18">
         <v>1.064571763</v>
       </c>
-      <c r="N7" s="2" t="b">
+      <c r="R7" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="2">
+      <c r="U7" s="2">
         <v>4</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
         <v>0.61625295000000002</v>
       </c>
-      <c r="R7">
+      <c r="W7">
         <v>0.80229109250299102</v>
       </c>
-      <c r="S7" s="2" t="b">
+      <c r="X7" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -23131,34 +27023,34 @@
         <v>1</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="2">
+      <c r="O8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="19">
+      <c r="P8" s="19">
         <v>0.70201908599999996</v>
       </c>
-      <c r="M8" s="18">
+      <c r="Q8" s="18">
         <v>1.0563180160000001</v>
       </c>
-      <c r="N8" s="2" t="b">
+      <c r="R8" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="2">
+      <c r="U8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="V8">
         <v>0.59952943800000003</v>
       </c>
-      <c r="R8">
+      <c r="W8">
         <v>0.70026186546870695</v>
       </c>
-      <c r="S8" s="2" t="b">
+      <c r="X8" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -23185,34 +27077,34 @@
         <v>1</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="2">
+      <c r="O9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="18">
+      <c r="P9" s="18">
         <v>0.82543283700000003</v>
       </c>
-      <c r="M9" s="2">
+      <c r="Q9" s="2">
         <v>0.84157454899999995</v>
       </c>
-      <c r="N9" s="2" t="b">
+      <c r="R9" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="2">
+      <c r="U9" s="2">
         <v>6</v>
       </c>
-      <c r="Q9">
+      <c r="V9">
         <v>0.60050652699999996</v>
       </c>
-      <c r="R9">
+      <c r="W9">
         <v>0.70475972126934405</v>
       </c>
-      <c r="S9" s="2" t="b">
+      <c r="X9" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F10" s="2">
         <v>7</v>
       </c>
@@ -23227,34 +27119,34 @@
         <v>0</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="2">
+      <c r="O10" s="2">
         <v>7</v>
       </c>
-      <c r="L10" s="18">
+      <c r="P10" s="18">
         <v>0.82055904099999999</v>
       </c>
-      <c r="M10" s="19">
+      <c r="Q10" s="19">
         <v>0.62845552599999999</v>
       </c>
-      <c r="N10" s="2" t="b">
+      <c r="R10" s="2" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P10" s="2">
+      <c r="U10" s="2">
         <v>7</v>
       </c>
-      <c r="Q10">
+      <c r="V10">
         <v>0.59095626599999995</v>
       </c>
-      <c r="R10">
+      <c r="W10">
         <v>0.57906447013863505</v>
       </c>
-      <c r="S10" s="2" t="b">
+      <c r="X10" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F11" s="2">
         <v>8</v>
       </c>
@@ -23269,46 +27161,46 @@
         <v>0</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="2">
+      <c r="O11" s="2">
         <v>8</v>
       </c>
-      <c r="L11" s="18">
+      <c r="P11" s="18">
         <v>0.87793139899999995</v>
       </c>
-      <c r="M11" s="18">
+      <c r="Q11" s="18">
         <v>0.81407595600000004</v>
       </c>
-      <c r="N11" s="2" t="b">
+      <c r="R11" s="2" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P11" s="2">
+      <c r="U11" s="2">
         <v>8</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="V11" s="22">
         <v>0.57415418900000004</v>
       </c>
-      <c r="R11" s="17">
+      <c r="W11" s="17">
         <v>0.57416537263621503</v>
       </c>
-      <c r="S11" s="2" t="b">
+      <c r="X11" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="J12" s="10"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="J13" s="10"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="J14" s="10"/>
@@ -23317,7 +27209,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="J15" s="10"/>
@@ -23326,20 +27218,20 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="13"/>
@@ -23348,7 +27240,7 @@
       <c r="L18" s="13"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="J19" s="10"/>
@@ -23356,23 +27248,23 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:21" x14ac:dyDescent="0.3">
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:21" x14ac:dyDescent="0.3">
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:21" x14ac:dyDescent="0.3">
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="2">
         <v>1</v>
       </c>
@@ -23380,7 +27272,7 @@
         <v>0.40092401</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="2">
         <v>8</v>
       </c>
@@ -23388,7 +27280,7 @@
         <v>0.38762119</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>2</v>
       </c>
@@ -23396,7 +27288,7 @@
         <v>0.37119176999999998</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>4</v>
       </c>
@@ -23404,7 +27296,7 @@
         <v>4.1656829999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>3</v>
       </c>
@@ -23412,7 +27304,7 @@
         <v>3.088511E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>7</v>
       </c>
@@ -23420,7 +27312,7 @@
         <v>2.9280049999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>5</v>
       </c>
@@ -23428,7 +27320,7 @@
         <v>2.4889410000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="2">
         <v>6</v>
       </c>
@@ -23442,14 +27334,14 @@
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/experiments/results.xlsx
+++ b/experiments/results.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\PycharmProjects\current\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57448A8E-A925-4C3A-8EBD-A44E2026E6FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75277AD9-70D9-4560-9093-97E068608D14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB1890BE-3AD9-40E3-8A77-F51DCCE4E7BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{AB1890BE-3AD9-40E3-8A77-F51DCCE4E7BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Binary Letters- 0.05" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary Letters- alpha 0.05" sheetId="1" r:id="rId1"/>
     <sheet name="Binary Letters - alpha 0.1" sheetId="7" r:id="rId2"/>
-    <sheet name="Multi letters" sheetId="2" r:id="rId3"/>
-    <sheet name="Bike" sheetId="5" r:id="rId4"/>
-    <sheet name="Cal housing" sheetId="6" r:id="rId5"/>
+    <sheet name="Higgs Boson - alpha 0.05" sheetId="8" r:id="rId3"/>
+    <sheet name="Higs Boson - alpha 0.1" sheetId="9" r:id="rId4"/>
+    <sheet name="Multi letters" sheetId="2" r:id="rId5"/>
+    <sheet name="Bike" sheetId="5" r:id="rId6"/>
+    <sheet name="Cal housing" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Binary Letters - alpha 0.1'!$AN$1:$AN$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Binary Letters- 0.05'!$BE$1:$BE$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Multi letters'!$AY$1:$AY$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Binary Letters- alpha 0.05'!$BE$1:$BE$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Higgs Boson - alpha 0.05'!$Q$1:$Q$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Higs Boson - alpha 0.1'!$W$1:$W$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Multi letters'!$AY$1:$AY$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="52">
   <si>
     <t>MI - score</t>
   </si>
@@ -120,6 +124,9 @@
     <t>Z-alpha(0.05)</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>8\10</t>
   </si>
   <si>
@@ -131,6 +138,69 @@
   <si>
     <t>5\5</t>
   </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) one-tail</t>
+  </si>
+  <si>
+    <t>F Critical one-tail</t>
+  </si>
+  <si>
+    <t>כדי לדחות את השערת ה-0, בגלל שהשונות של V1 גדולה משל V2 צריך שהF המחושב יהיה גדול מהF הקריטי.</t>
+  </si>
+  <si>
+    <t>בגלל שזה לא המצב, לא דוחים את השערת ה-0, כלומר, אין הבדל מובהק בין השוניות.</t>
+  </si>
+  <si>
+    <t>אלפא=0.05</t>
+  </si>
+  <si>
+    <t>אלפא = 0.1</t>
+  </si>
+  <si>
+    <t>אותה מסקנה, לא מובהק</t>
+  </si>
+  <si>
+    <t>לא מובהק</t>
+  </si>
+  <si>
+    <t>אלפא=0.1</t>
+  </si>
+  <si>
+    <t>מובהק</t>
+  </si>
+  <si>
+    <t>5\11</t>
+  </si>
+  <si>
+    <t>0\3</t>
+  </si>
+  <si>
+    <t>7\13</t>
+  </si>
+  <si>
+    <t>2\5</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +239,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,11 +315,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +413,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +498,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$G$2:$G$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$G$2:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -411,7 +522,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$F$4:$F$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$F$4:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -468,7 +579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$G$4:$G$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$G$4:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -534,7 +645,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$H$2:$H$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$H$2:$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -558,7 +669,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$F$4:$F$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$F$4:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -615,7 +726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$H$4:$H$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$H$4:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -699,7 +810,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Binary Letters- 0.05'!$I$2:$I$3</c15:sqref>
+                          <c15:sqref>'Binary Letters- alpha 0.05'!$I$2:$I$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -729,7 +840,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Binary Letters- 0.05'!$F$4:$F$19</c15:sqref>
+                          <c15:sqref>'Binary Letters- alpha 0.05'!$F$4:$F$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -792,7 +903,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Binary Letters- 0.05'!$I$4:$I$19</c15:sqref>
+                          <c15:sqref>'Binary Letters- alpha 0.05'!$I$4:$I$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2088,7 +2199,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bike!$W$2:$W$3</c:f>
+              <c:f>Bike!$R$2:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2112,7 +2223,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Bike!$V$4:$V$15</c:f>
+              <c:f>Bike!$Q$4:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2157,7 +2268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bike!$W$4:$W$15</c:f>
+              <c:f>Bike!$R$4:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2211,7 +2322,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bike!$X$2:$X$3</c:f>
+              <c:f>Bike!$S$2:$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2235,7 +2346,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Bike!$V$4:$V$15</c:f>
+              <c:f>Bike!$Q$4:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2280,7 +2391,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bike!$X$4:$X$15</c:f>
+              <c:f>Bike!$S$4:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2541,6 +2652,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40641252243297254"/>
+          <c:y val="1.3708019191226868E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2572,7 +2691,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.595720235530662E-2"/>
+          <c:y val="0.27641087358939626"/>
+          <c:w val="0.86684149401617772"/>
+          <c:h val="0.61999823702640322"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2605,7 +2734,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
@@ -2614,8 +2743,7 @@
                 </c:ext>
               </c:extLst>
               <c:f>'Cal housing'!$F$4:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2641,8 +2769,8 @@
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2718,7 +2846,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
@@ -2727,8 +2855,7 @@
                 </c:ext>
               </c:extLst>
               <c:f>'Cal housing'!$F$4:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2754,8 +2881,8 @@
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3000,790 +3127,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cal housing'!$P$2:$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>rmse</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$K$4:$K$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$K$4:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$L$4:$L$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$L$4:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-166C-4513-B7C3-AA4D337878D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cal housing'!$Q$2:$Q$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>rmse</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$K$4:$K$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$K$4:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Cal housing'!$M$4:$M$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Cal housing'!$M$4:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-166C-4513-B7C3-AA4D337878D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1143304592"/>
-        <c:axId val="1143311480"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1143304592"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1143311480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1143311480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1143304592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="908895824"/>
-        <c:axId val="908895496"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Cal housing'!$V$2:$V$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>rmse</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>MI</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Cal housing'!$P$12:$P$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref/>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="0"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Cal housing'!$Q$12:$Q$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref/>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="0"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-6DDB-463E-890D-C9001672AEED}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Cal housing'!$W$2:$W$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>rmse</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>NID</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Cal housing'!$P$12:$P$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref/>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="0"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Cal housing'!$R$12:$R$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref/>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="0"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-6DDB-463E-890D-C9001672AEED}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="908895824"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="908895496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="908895496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="908895824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3840,7 +3183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$J$2:$J$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$J$2:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3864,7 +3207,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$F$4:$F$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$F$4:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3921,7 +3264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$J$4:$J$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$J$4:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3987,7 +3330,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$K$2:$K$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$K$2:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4011,7 +3354,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$F$4:$F$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$F$4:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4068,7 +3411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$K$4:$K$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$K$4:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4152,7 +3495,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Binary Letters- 0.05'!$L$2:$L$3</c15:sqref>
+                          <c15:sqref>'Binary Letters- alpha 0.05'!$L$2:$L$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4182,7 +3525,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Binary Letters- 0.05'!$F$4:$F$19</c15:sqref>
+                          <c15:sqref>'Binary Letters- alpha 0.05'!$F$4:$F$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4245,7 +3588,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Binary Letters- 0.05'!$L$4:$L$19</c15:sqref>
+                          <c15:sqref>'Binary Letters- alpha 0.05'!$L$4:$L$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4553,7 +3896,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$AA$2:$AA$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AA$2:$AA$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4577,7 +3920,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$Z$4:$Z$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4634,7 +3977,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$AA$4:$AA$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AA$4:$AA$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4700,7 +4043,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$AB$2:$AB$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AB$2:$AB$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4724,7 +4067,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$Z$4:$Z$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4781,7 +4124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$AB$4:$AB$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AB$4:$AB$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5096,7 +4439,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$AD$2:$AD$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AD$2:$AD$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5120,7 +4463,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$Z$4:$Z$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5177,7 +4520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$AD$4:$AD$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AD$4:$AD$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5243,7 +4586,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Binary Letters- 0.05'!$AE$2:$AE$3</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AE$2:$AE$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5267,7 +4610,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$Z$4:$Z$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5324,7 +4667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Binary Letters- 0.05'!$AE$4:$AE$19</c:f>
+              <c:f>'Binary Letters- alpha 0.05'!$AE$4:$AE$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8593,86 +7936,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11006,1012 +10269,6 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16877,15 +15134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>75247</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>389572</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>48577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16912,16 +15169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16949,15 +15206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16989,16 +15246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>608647</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160972</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>155257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17020,82 +15277,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD57015C-3F7E-40BB-AE16-368587B79AF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76DA83A-F0E0-4D1A-9E5F-89EBBD05FB71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17403,8 +15584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD96269-3030-4528-9946-FFE0F4ACC6A9}">
   <dimension ref="A1:BK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AW25" sqref="AW25"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21177,7 +19358,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AM26" sqref="AM26"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23526,10 +21707,10 @@
     </row>
     <row r="21" spans="4:40" x14ac:dyDescent="0.3">
       <c r="O21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH21" t="s">
         <v>21</v>
@@ -23570,11 +21751,5055 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07FDACB-AE81-45C3-8DEC-35F09D863D8A}">
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView topLeftCell="K8" workbookViewId="0">
+      <selection sqref="A1:W35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.0403299999999997E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="S2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.9332529999999998E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.0316020000000007E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.71039375000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.65554875000000001</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <f>H4&gt;=G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.65878715299381896</v>
+      </c>
+      <c r="K4">
+        <v>0.57671516812760104</v>
+      </c>
+      <c r="L4" t="b">
+        <f>K4&gt;=J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SQRT( (G4*(1-G4)/80000) + (H4*(1-H4)/80000) )</f>
+        <v>2.3225499357774179E-3</v>
+      </c>
+      <c r="N4" s="8">
+        <f>((1-G4)-(1-H4))</f>
+        <v>-5.4845000000000033E-2</v>
+      </c>
+      <c r="O4">
+        <f>N4-(R4*M4)</f>
+        <v>-5.8665594644353884E-2</v>
+      </c>
+      <c r="P4">
+        <f>N4+(R4*M4)</f>
+        <v>-5.1024405355646181E-2</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(AND(0&gt;O4,0&lt;P4),"F","T")</f>
+        <v>T</v>
+      </c>
+      <c r="R4" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S4">
+        <f>SQRT( (J4*(1-J4)/2000) + (K4*(1-K4)/2000) )</f>
+        <v>1.5311783420347733E-2</v>
+      </c>
+      <c r="T4" s="8">
+        <f>((1-J4)-(1-K4))</f>
+        <v>-8.2071984866217917E-2</v>
+      </c>
+      <c r="U4">
+        <f>T4-(R4*S4)</f>
+        <v>-0.10725986859268993</v>
+      </c>
+      <c r="V4">
+        <f>T4+(R4*S4)</f>
+        <v>-5.6884101139745895E-2</v>
+      </c>
+      <c r="W4" t="str">
+        <f>IF(AND(0&gt;U4,0&lt;V4),"F","T")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.2957410000000005E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0.70922249999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.62236499999999995</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <f t="shared" ref="I5:I33" si="0">H5&gt;=G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.656418865484932</v>
+      </c>
+      <c r="K5">
+        <v>0.58150027387014602</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" ref="L5:L33" si="1">K5&gt;=J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>SQRT( (G5*(1-G5)/80000) + (H5*(1-H5)/80000) )</f>
+        <v>2.3485441029198013E-3</v>
+      </c>
+      <c r="N5" s="8">
+        <f>((1-G5)-(1-H5))</f>
+        <v>-8.6857500000000032E-2</v>
+      </c>
+      <c r="O5">
+        <f>N5-(R5*M5)</f>
+        <v>-9.0720855049303106E-2</v>
+      </c>
+      <c r="P5">
+        <f>N5+(R5*M5)</f>
+        <v>-8.2994144950696958E-2</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(AND(0&gt;O5,0&lt;P5),"F","T")</f>
+        <v>T</v>
+      </c>
+      <c r="R5" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S5">
+        <f>SQRT( (J5*(1-J5)/2000) + (K5*(1-K5)/2000) )</f>
+        <v>1.5311610690575598E-2</v>
+      </c>
+      <c r="T5" s="8">
+        <f>((1-J5)-(1-K5))</f>
+        <v>-7.4918591614785979E-2</v>
+      </c>
+      <c r="U5">
+        <f>T5-(R5*S5)</f>
+        <v>-0.10010619120078285</v>
+      </c>
+      <c r="V5">
+        <f>T5+(R5*S5)</f>
+        <v>-4.9730992028789119E-2</v>
+      </c>
+      <c r="W5" t="str">
+        <f>IF(AND(0&gt;U5,0&lt;V5),"F","T")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.767468E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0.72911000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.66791999999999996</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f>H6&gt;=G6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.69839636046213505</v>
+      </c>
+      <c r="K6">
+        <v>0.63231507402568399</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M33" si="2">SQRT( (G6*(1-G6)/80000) + (H6*(1-H6)/80000) )</f>
+        <v>2.2894089889641824E-3</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:N33" si="3">((1-G6)-(1-H6))</f>
+        <v>-6.1190000000000078E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O33" si="4">N6-(R6*M6)</f>
+        <v>-6.4956077786846159E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P33" si="5">N6+(R6*M6)</f>
+        <v>-5.7423922213153997E-2</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ref="Q6:Q33" si="6">IF(AND(0&gt;O6,0&lt;P6),"F","T")</f>
+        <v>T</v>
+      </c>
+      <c r="R6" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S33" si="7">SQRT( (J6*(1-J6)/2000) + (K6*(1-K6)/2000) )</f>
+        <v>1.4885086585924792E-2</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6:T33" si="8">((1-J6)-(1-K6))</f>
+        <v>-6.6081286436451059E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U33" si="9">T6-(R6*S6)</f>
+        <v>-9.0567253870297348E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V33" si="10">T6+(R6*S6)</f>
+        <v>-4.1595319002604776E-2</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" ref="W6:W33" si="11">IF(AND(0&gt;U6,0&lt;V6),"F","T")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.612834E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0.72972499999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.71410625000000005</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.69912110053219501</v>
+      </c>
+      <c r="K7">
+        <v>0.68319738437075705</v>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>2.2399356522173172E-3</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.5618749999999904E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>-1.9303444147897392E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-1.1934055852102417E-2</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R7" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>1.4608037268616215E-2</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.5923716161437951E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>-3.9953937468311621E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>8.1065051454357225E-3</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.2622159999999999E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0.73150250000000006</v>
+      </c>
+      <c r="H8">
+        <v>0.718952499999999</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.70115027727424295</v>
+      </c>
+      <c r="K8">
+        <v>0.68876694968892505</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2.2317773053037249E-3</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.255000000000106E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>-1.6221273667225689E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-8.8787263327764331E-3</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R8" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>1.4558598913659824E-2</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.2383327585317905E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>-3.6332222798288315E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>1.1565567627652505E-2</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.6691629999999999E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0.73622624999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.72085125000000005</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.707715071016217</v>
+      </c>
+      <c r="K9">
+        <v>0.69082724800846396</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>2.2232349296250021E-3</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.5374999999999917E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>-1.9032221459233046E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-1.1717778540766787E-2</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R9" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>1.4498955319095307E-2</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.6887823007753044E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>-4.0738604507664825E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="10"/>
+        <v>6.9629584921587356E-3</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.5625409999999999E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0.73778250000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.73629624999999899</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.70912705433765999</v>
+      </c>
+      <c r="K10">
+        <v>0.70831840148841396</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2.2012029805588353E-3</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.4862500000010215E-3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>-5.1072289030203053E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>2.1347289030182624E-3</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R10" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>1.4367834192134967E-2</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="8"/>
+        <v>-8.0865284924602765E-4</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>-2.4443740095308048E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>2.2826434396815993E-2</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.490114E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0.73766125000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.75160375000000001</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.70926250582882</v>
+      </c>
+      <c r="K11">
+        <v>0.72513038464774704</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>2.1800592974572245E-3</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="3"/>
+        <v>1.3942499999999969E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>1.0356302455682835E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1.7528697544317101E-2</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R11" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>1.4239478810030242E-2</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5867878818927039E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>-7.5560638235727083E-3</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>3.929182146142679E-2</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.3532600000000001E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0.73782625000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.75466624999999998</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.70943682222666404</v>
+      </c>
+      <c r="K12">
+        <v>0.72854351720609001</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>2.1753843796036227E-3</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6839999999999966E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>1.3261492695552006E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>2.0418507304447924E-2</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R12" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>1.4210983045494537E-2</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="8"/>
+        <v>1.9106694979425964E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>-4.2703721304125503E-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>4.2483762089264479E-2</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.165037E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.73747999999999903</v>
+      </c>
+      <c r="H13">
+        <v>0.75423125000000002</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.70907290376282295</v>
+      </c>
+      <c r="K13">
+        <v>0.72807701674581304</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>2.1764929391208635E-3</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6751250000000995E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>1.3170919115147174E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>2.0331580884854816E-2</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R13" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>1.4217408261432734E-2</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="8"/>
+        <v>1.9004112982990096E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>-4.3835236070667513E-3</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>4.2391749573046943E-2</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.1046199999999998E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>0.74454374999999995</v>
+      </c>
+      <c r="H14">
+        <v>0.759795</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.71711006896574603</v>
+      </c>
+      <c r="K14">
+        <v>0.73418272488222902</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>2.1584279936765829E-3</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5251250000000049E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>1.170063595040207E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1.8801864049598029E-2</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R14" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>1.4107119998788258E-2</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="8"/>
+        <v>1.7072655916482993E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>-6.1335564815236908E-3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>4.027886831448968E-2</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.4272E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>0.75785749999999996</v>
+      </c>
+      <c r="H15">
+        <v>0.76174499999999901</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.73176767693024403</v>
+      </c>
+      <c r="K15">
+        <v>0.73603999413070897</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2.1359981995215686E-3</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="3"/>
+        <v>3.8874999999990445E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>3.7378296178606401E-4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>7.4012170382120254E-3</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R15" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>1.3974420651696672E-2</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="8"/>
+        <v>4.2723172004649479E-3</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>-1.8715604771576078E-2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="10"/>
+        <v>2.7260239172505973E-2</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.1157099999999998E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0.76012875000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.76308624999999997</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.73426271843925905</v>
+      </c>
+      <c r="K16">
+        <v>0.73759747148903898</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2.1304889652506271E-3</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="3"/>
+        <v>2.9574999999999463E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>-5.4715434783733511E-4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>6.4621543478372272E-3</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R16" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>1.3940380559573397E-2</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="8"/>
+        <v>3.334753049779926E-3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="9"/>
+        <v>-1.9597172970718311E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="10"/>
+        <v>2.6266679070278163E-2</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.5221E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>0.76232624999999898</v>
+      </c>
+      <c r="H17">
+        <v>0.76314624999999903</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.73683392869859199</v>
+      </c>
+      <c r="K17">
+        <v>0.73773241689456903</v>
+      </c>
+      <c r="L17" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2.1270254749058484E-3</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="3"/>
+        <v>8.2000000000004292E-4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>-2.6789569062200778E-3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>4.3189569062201637E-3</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R17" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>1.3917488785241702E-2</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="8"/>
+        <v>8.9848819597704299E-4</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>-2.1995780855745557E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="10"/>
+        <v>2.3792757247699643E-2</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0.76200500000000004</v>
+      </c>
+      <c r="H18">
+        <v>0.76305500000000004</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.73655459296040504</v>
+      </c>
+      <c r="K18">
+        <v>0.73740316476936896</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>2.1276614126488733E-3</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0499999999999954E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>-2.450003023807401E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>4.5500030238073922E-3</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R18" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>1.3922673268931238E-2</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="8"/>
+        <v>8.4857180896391604E-4</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>-2.205422571842797E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>2.3751369336355802E-2</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>0.76350874999999996</v>
+      </c>
+      <c r="H19">
+        <v>0.76644749999999995</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.73847970352005099</v>
+      </c>
+      <c r="K19">
+        <v>0.74152108416962104</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>2.1200497294202427E-3</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="3"/>
+        <v>2.93874999999999E-3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>-5.4873180489630911E-4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>6.4262318048962895E-3</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R19" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>1.3870742534387253E-2</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="8"/>
+        <v>3.0413806495700468E-3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="9"/>
+        <v>-1.9775990819496984E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>2.5858752118637078E-2</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0.76414124999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.76639374999999998</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.73916117166738304</v>
+      </c>
+      <c r="K20">
+        <v>0.74148019508284102</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>2.1191500949949696E-3</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="3"/>
+        <v>2.2524999999999906E-3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>-1.2335019062667345E-3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>5.7385019062667162E-3</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R20" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>1.3865230783319794E-2</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="8"/>
+        <v>2.319023415457977E-3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="9"/>
+        <v>-2.0489281223103083E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="10"/>
+        <v>2.5127328054019037E-2</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>0.7643025</v>
+      </c>
+      <c r="H21">
+        <v>0.76595749999999996</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.739513489617451</v>
+      </c>
+      <c r="K21">
+        <v>0.74070522213727197</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>2.119583675770728E-3</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6549999999999621E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>-1.8317151466428856E-3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>5.1417151466428097E-3</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R21" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>1.3868927217472838E-2</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="8"/>
+        <v>1.191732519820965E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="9"/>
+        <v>-2.1622652752921852E-2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="10"/>
+        <v>2.4006117792563782E-2</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0.76412374999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.76608999999999905</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.73925841077211796</v>
+      </c>
+      <c r="K22">
+        <v>0.74111768851057302</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>2.1196543249606113E-3</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="3"/>
+        <v>1.966249999999059E-3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>-1.5205813645611465E-3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>5.453081364559265E-3</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R22" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>1.3867546162932337E-2</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8592777384550674E-3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="9"/>
+        <v>-2.0952835699568628E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="10"/>
+        <v>2.4671391176478763E-2</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0.76608624999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.76680499999999996</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.74087838794898697</v>
+      </c>
+      <c r="K23">
+        <v>0.74200744103656502</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>2.1154585777554752E-3</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="3"/>
+        <v>7.1874999999999023E-4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>-2.7611793604077665E-3</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>4.1986793604077473E-3</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R23" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>1.384575748563492E-2</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1290530875780469E-3</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="9"/>
+        <v>-2.1647217976291395E-2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="10"/>
+        <v>2.3905324151447489E-2</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>0.76562874999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.76714625000000003</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.74053259305852304</v>
+      </c>
+      <c r="K24">
+        <v>0.74234593381039204</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>2.1156389350630435E-3</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5175000000000605E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>-1.9627260481786461E-3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>4.9977260481787675E-3</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R24" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>1.3845802974947174E-2</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8133407518690081E-3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>-2.0963005141919094E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="10"/>
+        <v>2.4589686645657111E-2</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>0.76669999999999905</v>
+      </c>
+      <c r="H25">
+        <v>0.7666425</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.74164915256069996</v>
+      </c>
+      <c r="K25">
+        <v>0.74187491037930098</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>2.1147484696582429E-3</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="3"/>
+        <v>-5.7499999999044427E-5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>-3.536261232586854E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>3.4212612325887652E-3</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R25" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>1.3840198965255172E-2</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" si="8"/>
+        <v>2.257578186010134E-4</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>-2.2541369479243744E-2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="10"/>
+        <v>2.2992885116445771E-2</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>0.76667624999999995</v>
+      </c>
+      <c r="H26">
+        <v>0.76739625</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.74194805952937304</v>
+      </c>
+      <c r="K26">
+        <v>0.74293058943189505</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>2.1135959381226197E-3</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="3"/>
+        <v>7.2000000000005393E-4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>-2.7568653182116556E-3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>4.1968653182117635E-3</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R26" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>1.3828338027547689E-2</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" si="8"/>
+        <v>9.8252990252201133E-4</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>-2.1765086152793937E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="10"/>
+        <v>2.3730145957837959E-2</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>0.76788999999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.76695374999999999</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.74336551694844799</v>
+      </c>
+      <c r="K27">
+        <v>0.742361540961892</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>2.1123761598639858E-3</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="3"/>
+        <v>-9.3624999999997183E-4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>-4.4111087829762285E-3</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>2.5386087829762849E-3</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R27" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>1.3820891950648334E-2</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.0039759865559938E-3</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="9"/>
+        <v>-2.3739343245372503E-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="10"/>
+        <v>2.1731391272260515E-2</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>0.76776999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.76991999999999905</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.74305990644203901</v>
+      </c>
+      <c r="K28">
+        <v>0.74581579090433503</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>2.1078496765068442E-3</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="3"/>
+        <v>2.1499999999990971E-3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>-1.3174127178546616E-3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>5.6174127178528557E-3</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R28" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>1.379305040269308E-2</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" si="8"/>
+        <v>2.755884462296021E-3</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="9"/>
+        <v>-1.9933683450134094E-2</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="10"/>
+        <v>2.5445452374726136E-2</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>0.76751000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.768361249999999</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.74284873855303002</v>
+      </c>
+      <c r="K29">
+        <v>0.74399658815332104</v>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>2.1107482067931446E-3</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="3"/>
+        <v>8.5124999999897089E-4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>-2.6209308001757521E-3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>4.3234308001736943E-3</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R29" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>1.3811049112083062E-2</v>
+      </c>
+      <c r="T29" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1478496002910177E-3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="9"/>
+        <v>-2.157132618908562E-2</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="10"/>
+        <v>2.3867025389667656E-2</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>0.76706374999999904</v>
+      </c>
+      <c r="H30">
+        <v>0.76779249999999899</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.74239896560787</v>
+      </c>
+      <c r="K30">
+        <v>0.74321071552802398</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>2.1123568897669981E-3</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="3"/>
+        <v>7.2874999999994472E-4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>-2.7460770836667671E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>4.2035770836666569E-3</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R30" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>1.3821926228362334E-2</v>
+      </c>
+      <c r="T30" s="8">
+        <f t="shared" si="8"/>
+        <v>8.1174992015398129E-4</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>-2.192531872550206E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="10"/>
+        <v>2.3548818565810023E-2</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>0.76775499999999997</v>
+      </c>
+      <c r="H31">
+        <v>0.76792249999999995</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.74330096021530601</v>
+      </c>
+      <c r="K31">
+        <v>0.74348673257300801</v>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>2.1110565896274255E-3</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="3"/>
+        <v>1.674999999999871E-4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>-3.3051880899371278E-3</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>3.640188089937102E-3</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R31" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>1.3811568589758922E-2</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8577235770200762E-4</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>-2.253425797245142E-2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="10"/>
+        <v>2.2905802687855435E-2</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>0.76775000000000004</v>
+      </c>
+      <c r="H32">
+        <v>0.76724499999999995</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.74316231195821003</v>
+      </c>
+      <c r="K32">
+        <v>0.74264678500421</v>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>2.1121376833524606E-3</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="3"/>
+        <v>-5.0500000000008871E-4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>-3.9794664891148867E-3</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>2.9694664891147088E-3</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R32" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>1.3820177780518215E-2</v>
+      </c>
+      <c r="T32" s="8">
+        <f t="shared" si="8"/>
+        <v>-5.1552695400003401E-4</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>-2.32497194029525E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="10"/>
+        <v>2.2218665494952432E-2</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>0.76719000000000004</v>
+      </c>
+      <c r="H33">
+        <v>0.76733874999999996</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.74276298914586003</v>
+      </c>
+      <c r="K33">
+        <v>0.74289007809612095</v>
+      </c>
+      <c r="L33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>2.1128756963213592E-3</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4874999999991978E-4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>-3.3269305204487163E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>3.6244305204485559E-3</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R33" s="28">
+        <v>1.645</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>1.3821550945234535E-2</v>
+      </c>
+      <c r="T33" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2708895026092293E-4</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>-2.2609362354649887E-2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="10"/>
+        <v>2.2863540255171733E-2</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="Q1:Q35" xr:uid="{4DF14766-8C27-402E-A7E6-4BBD5E0EDF16}"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F1701-CA55-43B3-B888-71A6E47EBF01}">
+  <dimension ref="A1:W34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.0403299999999997E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="S2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.9332529999999998E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.0316020000000007E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.71039375000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.65554875000000001</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <f>H4&gt;=G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.65878715299381896</v>
+      </c>
+      <c r="K4">
+        <v>0.57671516812760104</v>
+      </c>
+      <c r="L4" t="b">
+        <f>K4&gt;=J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SQRT( (G4*(1-G4)/80000) + (H4*(1-H4)/80000) )</f>
+        <v>2.3225499357774179E-3</v>
+      </c>
+      <c r="N4" s="8">
+        <f>((1-G4)-(1-H4))</f>
+        <v>-5.4845000000000033E-2</v>
+      </c>
+      <c r="O4">
+        <f>N4-(R4*M4)</f>
+        <v>-5.7822509017666682E-2</v>
+      </c>
+      <c r="P4">
+        <f>N4+(R4*M4)</f>
+        <v>-5.1867490982333384E-2</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(AND(0&gt;O4,0&lt;P4),"F","T")</f>
+        <v>T</v>
+      </c>
+      <c r="R4" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S4">
+        <f>SQRT( (J4*(1-J4)/2000) + (K4*(1-K4)/2000) )</f>
+        <v>1.5311783420347733E-2</v>
+      </c>
+      <c r="T4" s="8">
+        <f>((1-J4)-(1-K4))</f>
+        <v>-8.2071984866217917E-2</v>
+      </c>
+      <c r="U4">
+        <f>T4-(R4*S4)</f>
+        <v>-0.10170169121110371</v>
+      </c>
+      <c r="V4">
+        <f>T4+(R4*S4)</f>
+        <v>-6.244227852133212E-2</v>
+      </c>
+      <c r="W4" t="str">
+        <f>IF(AND(0&gt;U4,0&lt;V4),"F","T")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.2957410000000005E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0.70922249999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.62236499999999995</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <f t="shared" ref="I5:I33" si="0">H5&gt;=G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.656418865484932</v>
+      </c>
+      <c r="K5">
+        <v>0.58150027387014602</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" ref="L5:L33" si="1">K5&gt;=J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>SQRT( (G5*(1-G5)/80000) + (H5*(1-H5)/80000) )</f>
+        <v>2.3485441029198013E-3</v>
+      </c>
+      <c r="N5" s="8">
+        <f>((1-G5)-(1-H5))</f>
+        <v>-8.6857500000000032E-2</v>
+      </c>
+      <c r="O5">
+        <f>N5-(R5*M5)</f>
+        <v>-8.9868333539943224E-2</v>
+      </c>
+      <c r="P5">
+        <f>N5+(R5*M5)</f>
+        <v>-8.384666646005684E-2</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(AND(0&gt;O5,0&lt;P5),"F","T")</f>
+        <v>T</v>
+      </c>
+      <c r="R5" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S5">
+        <f>SQRT( (J5*(1-J5)/2000) + (K5*(1-K5)/2000) )</f>
+        <v>1.5311610690575598E-2</v>
+      </c>
+      <c r="T5" s="8">
+        <f>((1-J5)-(1-K5))</f>
+        <v>-7.4918591614785979E-2</v>
+      </c>
+      <c r="U5">
+        <f>T5-(R5*S5)</f>
+        <v>-9.4548076520103899E-2</v>
+      </c>
+      <c r="V5">
+        <f>T5+(R5*S5)</f>
+        <v>-5.5289106709468058E-2</v>
+      </c>
+      <c r="W5" t="str">
+        <f>IF(AND(0&gt;U5,0&lt;V5),"F","T")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.767468E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0.72911000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.66791999999999996</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f>H6&gt;=G6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.69839636046213505</v>
+      </c>
+      <c r="K6">
+        <v>0.63231507402568399</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M33" si="2">SQRT( (G6*(1-G6)/80000) + (H6*(1-H6)/80000) )</f>
+        <v>2.2894089889641824E-3</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:N33" si="3">((1-G6)-(1-H6))</f>
+        <v>-6.1190000000000078E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O33" si="4">N6-(R6*M6)</f>
+        <v>-6.4125022323852157E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P33" si="5">N6+(R6*M6)</f>
+        <v>-5.8254977676147998E-2</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ref="Q6:Q33" si="6">IF(AND(0&gt;O6,0&lt;P6),"F","T")</f>
+        <v>T</v>
+      </c>
+      <c r="R6" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S33" si="7">SQRT( (J6*(1-J6)/2000) + (K6*(1-K6)/2000) )</f>
+        <v>1.4885086585924792E-2</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6:T33" si="8">((1-J6)-(1-K6))</f>
+        <v>-6.6081286436451059E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U33" si="9">T6-(R6*S6)</f>
+        <v>-8.5163967439606636E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V33" si="10">T6+(R6*S6)</f>
+        <v>-4.6998605433295475E-2</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" ref="W6:W33" si="11">IF(AND(0&gt;U6,0&lt;V6),"F","T")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.612834E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0.72972499999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.71410625000000005</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.69912110053219501</v>
+      </c>
+      <c r="K7">
+        <v>0.68319738437075705</v>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>2.2399356522173172E-3</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.5618749999999904E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>-1.8490347506142504E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-1.2747152493857303E-2</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R7" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>1.4608037268616215E-2</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.5923716161437951E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>-3.465121993980394E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>2.8037876169280385E-3</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.2622159999999999E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0.73150250000000006</v>
+      </c>
+      <c r="H8">
+        <v>0.718952499999999</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.70115027727424295</v>
+      </c>
+      <c r="K8">
+        <v>0.68876694968892505</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2.2317773053037249E-3</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.255000000000106E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>-1.5411138505400435E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-9.688861494601686E-3</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R8" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>1.4558598913659824E-2</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.2383327585317905E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>-3.10474513926298E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>6.2807962219939908E-3</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.6691629999999999E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0.73622624999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.72085125000000005</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.707715071016217</v>
+      </c>
+      <c r="K9">
+        <v>0.69082724800846396</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>2.2232349296250021E-3</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.5374999999999917E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>-1.8225187179779168E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-1.2524812820220664E-2</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R9" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>1.4498955319095307E-2</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.6887823007753044E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>-3.5475483726833228E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="10"/>
+        <v>1.6998377113271387E-3</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.5625409999999999E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0.73778250000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.73629624999999899</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.70912705433765999</v>
+      </c>
+      <c r="K10">
+        <v>0.70831840148841396</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2.2012029805588353E-3</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.4862500000010215E-3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>-4.3081922210774486E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>1.3356922210754052E-3</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R10" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>1.4367834192134967E-2</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="8"/>
+        <v>-8.0865284924602765E-4</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>-1.9228216283563054E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>1.7610910585070999E-2</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.490114E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0.73766125000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.75160375000000001</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.70926250582882</v>
+      </c>
+      <c r="K11">
+        <v>0.72513038464774704</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>2.1800592974572245E-3</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="3"/>
+        <v>1.3942499999999969E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>1.1147663980659807E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1.6737336019340132E-2</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R11" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>1.4239478810030242E-2</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5867878818927039E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>-2.3871330155317318E-3</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>3.4122890653385807E-2</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.3532600000000001E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0.73782625000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.75466624999999998</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.70943682222666404</v>
+      </c>
+      <c r="K12">
+        <v>0.72854351720609001</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>2.1753843796036227E-3</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6839999999999966E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>1.4051157225348122E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>1.9628842774651808E-2</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R12" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>1.4210983045494537E-2</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="8"/>
+        <v>1.9106694979425964E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>8.8821471510196898E-4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>3.732517524374996E-2</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.165037E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.73747999999999903</v>
+      </c>
+      <c r="H13">
+        <v>0.75423125000000002</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.70907290376282295</v>
+      </c>
+      <c r="K13">
+        <v>0.72807701674581304</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>2.1764929391208635E-3</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6751250000000995E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>1.3960986052048048E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>1.9541513947953941E-2</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R13" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>1.4217408261432734E-2</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="8"/>
+        <v>1.9004112982990096E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>7.7739559183332904E-4</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>3.7230830374146859E-2</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="11"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.1046199999999998E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>0.74454374999999995</v>
+      </c>
+      <c r="H14">
+        <v>0.759795</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.71711006896574603</v>
+      </c>
+      <c r="K14">
+        <v>0.73418272488222902</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>2.1584279936765829E-3</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5251250000000049E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>1.2484145312106671E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1.801835468789343E-2</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R14" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>1.4107119998788258E-2</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="8"/>
+        <v>1.7072655916482993E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>-1.0126719219635538E-3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>3.5157983754929539E-2</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.4272E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>0.75785749999999996</v>
+      </c>
+      <c r="H15">
+        <v>0.76174499999999901</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.73176767693024403</v>
+      </c>
+      <c r="K15">
+        <v>0.73603999413070897</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2.1359981995215686E-3</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="3"/>
+        <v>3.8874999999990445E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>1.1491503082123934E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>6.6258496917856961E-3</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R15" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>1.3974420651696672E-2</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="8"/>
+        <v>4.2723172004649479E-3</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>-1.3642890075010187E-2</v>
+      </c>
+      <c r="V15">
+        <f>T15+(R15*S15)</f>
+        <v>2.2187524475940083E-2</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.1157099999999998E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0.76012875000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.76308624999999997</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.73426271843925905</v>
+      </c>
+      <c r="K16">
+        <v>0.73759747148903898</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2.1304889652506271E-3</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="3"/>
+        <v>2.9574999999999463E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>2.2621314654864243E-4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>5.6887868534512501E-3</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R16" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>1.3940380559573397E-2</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="8"/>
+        <v>3.334753049779926E-3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="9"/>
+        <v>-1.453681482759317E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="10"/>
+        <v>2.1206320927153022E-2</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.5221E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>0.76232624999999898</v>
+      </c>
+      <c r="H17">
+        <v>0.76314624999999903</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.73683392869859199</v>
+      </c>
+      <c r="K17">
+        <v>0.73773241689456903</v>
+      </c>
+      <c r="L17" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2.1270254749058484E-3</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="3"/>
+        <v>8.2000000000004292E-4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>-1.9068466588292548E-3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>3.5468466588293407E-3</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R17" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>1.3917488785241702E-2</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="8"/>
+        <v>8.9848819597704299E-4</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>-1.6943732426702818E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="10"/>
+        <v>1.8740708818656904E-2</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0.76200500000000004</v>
+      </c>
+      <c r="H18">
+        <v>0.76305500000000004</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.73655459296040504</v>
+      </c>
+      <c r="K18">
+        <v>0.73740316476936896</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>2.1276614126488733E-3</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0499999999999954E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>-1.6776619310158603E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>3.7776619310158511E-3</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R18" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>1.3922673268931238E-2</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="8"/>
+        <v>8.4857180896391604E-4</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>-1.7000295321805931E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>1.8697438939733763E-2</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>0.76350874999999996</v>
+      </c>
+      <c r="H19">
+        <v>0.76644749999999995</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.73847970352005099</v>
+      </c>
+      <c r="K19">
+        <v>0.74152108416962104</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>2.1200497294202427E-3</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="3"/>
+        <v>2.93874999999999E-3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>2.2084624688323892E-4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>5.656653753116741E-3</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="R19" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>1.3870742534387253E-2</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="8"/>
+        <v>3.0413806495700468E-3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="9"/>
+        <v>-1.4740911279514414E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>2.0823672578654508E-2</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0.76414124999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.76639374999999998</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.73916117166738304</v>
+      </c>
+      <c r="K20">
+        <v>0.74148019508284102</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>2.1191500949949696E-3</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="3"/>
+        <v>2.2524999999999906E-3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>-4.6425042178356059E-4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>4.9692504217835418E-3</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R20" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>1.3865230783319794E-2</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="8"/>
+        <v>2.319023415457977E-3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="9"/>
+        <v>-1.5456202448757998E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="10"/>
+        <v>2.0094249279673952E-2</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>0.7643025</v>
+      </c>
+      <c r="H21">
+        <v>0.76595749999999996</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.739513489617451</v>
+      </c>
+      <c r="K21">
+        <v>0.74070522213727197</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>2.119583675770728E-3</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6549999999999621E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>-1.0623062723381111E-3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>4.3723062723380352E-3</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R21" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>1.3868927217472838E-2</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="8"/>
+        <v>1.191732519820965E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="9"/>
+        <v>-1.6588232172979212E-2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="10"/>
+        <v>1.8971697212621142E-2</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0.76412374999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.76608999999999905</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.73925841077211796</v>
+      </c>
+      <c r="K22">
+        <v>0.74111768851057302</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>2.1196543249606113E-3</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="3"/>
+        <v>1.966249999999059E-3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>-7.5114684460044455E-4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>4.6836468445985626E-3</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R22" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>1.3867546162932337E-2</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8592777384550674E-3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="9"/>
+        <v>-1.5918916442424189E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="10"/>
+        <v>1.9637471919334324E-2</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0.76608624999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.76680499999999996</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.74087838794898697</v>
+      </c>
+      <c r="K23">
+        <v>0.74200744103656502</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>2.1154585777554752E-3</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="3"/>
+        <v>7.1874999999999023E-4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>-1.993267896682529E-3</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>3.4307678966825094E-3</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R23" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>1.384575748563492E-2</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1290530875780469E-3</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="9"/>
+        <v>-1.6621208009005919E-2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="10"/>
+        <v>1.8879314184162013E-2</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>0.76562874999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.76714625000000003</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.74053259305852304</v>
+      </c>
+      <c r="K24">
+        <v>0.74234593381039204</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>2.1156389350630435E-3</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5175000000000605E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>-1.1947491147507611E-3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>4.2297491147508821E-3</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R24" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>1.3845802974947174E-2</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8133407518690081E-3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>-1.5936978662013268E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="10"/>
+        <v>1.9563660165751284E-2</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>0.76669999999999905</v>
+      </c>
+      <c r="H25">
+        <v>0.7666425</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.74164915256069996</v>
+      </c>
+      <c r="K25">
+        <v>0.74187491037930098</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>2.1147484696582429E-3</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="3"/>
+        <v>-5.7499999999044427E-5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>-2.7686075381009121E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>2.6536075381028233E-3</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R25" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>1.3840198965255172E-2</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" si="8"/>
+        <v>2.257578186010134E-4</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>-1.7517377254856119E-2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="10"/>
+        <v>1.7968892892058146E-2</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>0.76667624999999995</v>
+      </c>
+      <c r="H26">
+        <v>0.76739625</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.74194805952937304</v>
+      </c>
+      <c r="K26">
+        <v>0.74293058943189505</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>2.1135959381226197E-3</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="3"/>
+        <v>7.2000000000005393E-4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>-1.9896299926731448E-3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>3.4296299926732526E-3</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R26" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>1.3828338027547689E-2</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" si="8"/>
+        <v>9.8252990252201133E-4</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>-1.6745399448794124E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="10"/>
+        <v>1.8710459253838147E-2</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>0.76788999999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.76695374999999999</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.74336551694844799</v>
+      </c>
+      <c r="K27">
+        <v>0.742361540961892</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>2.1123761598639858E-3</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="3"/>
+        <v>-9.3624999999997183E-4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>-3.6443162369456015E-3</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>1.7718162369456578E-3</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R27" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>1.3820891950648334E-2</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.0039759865559938E-3</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="9"/>
+        <v>-1.8722359467287158E-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="10"/>
+        <v>1.671440749417517E-2</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>0.76776999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.76991999999999905</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.74305990644203901</v>
+      </c>
+      <c r="K28">
+        <v>0.74581579090433503</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>2.1078496765068442E-3</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="3"/>
+        <v>2.1499999999990971E-3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>-5.5226328528267714E-4</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>4.8522632852808709E-3</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R28" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>1.379305040269308E-2</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" si="8"/>
+        <v>2.755884462296021E-3</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="9"/>
+        <v>-1.4926806153956508E-2</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="10"/>
+        <v>2.043857507854855E-2</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>0.76751000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.768361249999999</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.74284873855303002</v>
+      </c>
+      <c r="K29">
+        <v>0.74399658815332104</v>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>2.1107482067931446E-3</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="3"/>
+        <v>8.5124999999897089E-4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>-1.8547292011098404E-3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>3.5572292011077822E-3</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R29" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>1.3811049112083062E-2</v>
+      </c>
+      <c r="T29" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1478496002910177E-3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="9"/>
+        <v>-1.6557915361399469E-2</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="10"/>
+        <v>1.8853614561981504E-2</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>0.76706374999999904</v>
+      </c>
+      <c r="H30">
+        <v>0.76779249999999899</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.74239896560787</v>
+      </c>
+      <c r="K30">
+        <v>0.74321071552802398</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>2.1123568897669981E-3</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="3"/>
+        <v>7.2874999999994472E-4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>-1.9792915326813467E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>3.4367915326812362E-3</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R30" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>1.3821926228362334E-2</v>
+      </c>
+      <c r="T30" s="8">
+        <f t="shared" si="8"/>
+        <v>8.1174992015398129E-4</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>-1.690795950460653E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="10"/>
+        <v>1.8531459344914493E-2</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>0.76775499999999997</v>
+      </c>
+      <c r="H31">
+        <v>0.76792249999999995</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.74330096021530601</v>
+      </c>
+      <c r="K31">
+        <v>0.74348673257300801</v>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>2.1110565896274255E-3</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="3"/>
+        <v>1.674999999999871E-4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>-2.5388745479023723E-3</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>2.8738745479023465E-3</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R31" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>1.3811568589758922E-2</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8577235770200762E-4</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>-1.7520658574368932E-2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="10"/>
+        <v>1.7892203289772948E-2</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>0.76775000000000004</v>
+      </c>
+      <c r="H32">
+        <v>0.76724499999999995</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.74316231195821003</v>
+      </c>
+      <c r="K32">
+        <v>0.74264678500421</v>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>2.1121376833524606E-3</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="3"/>
+        <v>-5.0500000000008871E-4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>-3.2127605100579432E-3</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>2.2027605100577658E-3</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R32" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>1.3820177780518215E-2</v>
+      </c>
+      <c r="T32" s="8">
+        <f t="shared" si="8"/>
+        <v>-5.1552695400003401E-4</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>-1.8232994868624387E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="10"/>
+        <v>1.7201940960624319E-2</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>0.76719000000000004</v>
+      </c>
+      <c r="H33">
+        <v>0.76733874999999996</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.74276298914586003</v>
+      </c>
+      <c r="K33">
+        <v>0.74289007809612095</v>
+      </c>
+      <c r="L33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>2.1128756963213592E-3</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4874999999991978E-4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>-2.559956642684063E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>2.8574566426839026E-3</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="R33" s="28">
+        <v>1.282</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>1.3821550945234535E-2</v>
+      </c>
+      <c r="T33" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2708895026092293E-4</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>-1.759213936152975E-2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="10"/>
+        <v>1.7846317262051596E-2</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>50</v>
+      </c>
+      <c r="W34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="W1:W37" xr:uid="{17F7C7BE-BF22-45DA-B652-6EAB3ECB93DF}"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA1A0F3-CDFA-44A5-8D9B-278D2EF51524}">
   <dimension ref="A1:BV24"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26812,10 +30037,10 @@
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.3">
       <c r="Y21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.3">
@@ -26829,7 +30054,7 @@
         <v>22</v>
       </c>
       <c r="AY22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.3">
@@ -26870,12 +30095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD68B929-7AE8-4635-9840-376819E107A1}">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AE4"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26884,17 +30109,21 @@
     <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="6" max="6" width="9" style="2"/>
+    <col min="6" max="6" width="28.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="15" width="9" style="2"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="2"/>
+    <col min="17" max="17" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="8.88671875" style="2"/>
     <col min="25" max="25" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -26920,14 +30149,14 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
-      <c r="V1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -26957,16 +30186,16 @@
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
-      <c r="V2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -27000,48 +30229,19 @@
       <c r="N3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="1" t="s">
+      <c r="O3"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="T3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD3" s="28" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -27081,67 +30281,22 @@
         <f>M4&lt;=L4</f>
         <v>0</v>
       </c>
-      <c r="O4" t="e">
-        <f>SQRT( (L4*(1-L4)/17379) + (M4*(1-M4)/17379) )</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="P4" t="e">
-        <f>L3-M3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q4" t="e">
-        <f>P4-(S4*O4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R4" t="e">
-        <f>(P4+(S4*O4))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S4" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="T4" t="e">
-        <f>IF(AND(P4&gt;Q4,P4&lt;R4),"T","F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V4" s="29">
-        <v>1</v>
-      </c>
-      <c r="W4">
+      <c r="O4"/>
+      <c r="Q4" s="29">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>0.71879681182551902</v>
       </c>
-      <c r="X4">
+      <c r="S4">
         <v>0.993951486357596</v>
       </c>
-      <c r="Y4" s="2" t="b">
-        <f>X4&lt;=W4</f>
+      <c r="T4" s="2" t="b">
+        <f>S4&lt;=R4</f>
         <v>0</v>
       </c>
-      <c r="Z4">
-        <f>SQRT((W4*(1-W4)/17379)+((X4*(1-X4)/17379)))</f>
-        <v>3.4607104372575276E-3</v>
-      </c>
-      <c r="AA4">
-        <f>W4-X4</f>
-        <v>-0.27515467453207698</v>
-      </c>
-      <c r="AB4">
-        <f>AA4-(AD4*Z4)</f>
-        <v>-0.28084754320136562</v>
-      </c>
-      <c r="AC4">
-        <f>(AA4+(AD4*Z4))</f>
-        <v>-0.26946180586278834</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE4" t="str">
-        <f>IF(AND(AA4&gt;AB4,AA4&lt;AC4),"T","F")</f>
-        <v>T</v>
-      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -27181,44 +30336,21 @@
         <f t="shared" ref="N5:N15" si="1">M5&lt;=L5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="2">
+      <c r="Q5" s="2">
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="R5">
         <v>0.63967209454372298</v>
       </c>
-      <c r="X5">
+      <c r="S5">
         <v>0.99382200169364698</v>
       </c>
-      <c r="Y5" s="2" t="b">
-        <f t="shared" ref="Y5:Y15" si="2">X5&lt;=W5</f>
+      <c r="T5" s="2" t="b">
+        <f t="shared" ref="T5:T15" si="2">S5&lt;=R5</f>
         <v>0</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z15" si="3">SQRT((W5*(1-W5)/17379)+((X5*(1-X5)/17379)))</f>
-        <v>3.6899792193951192E-3</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" ref="AA5:AA15" si="4">W5-X5</f>
-        <v>-0.354149907149924</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" ref="AB5:AB15" si="5">AA5-(AD5*Z5)</f>
-        <v>-0.360219922965829</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" ref="AC5:AC15" si="6">(AA5+(AD5*Z5))</f>
-        <v>-0.34807989133401901</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE5" t="str">
-        <f t="shared" ref="AE5:AE15" si="7">IF(AND(AA5&gt;AB5,AA5&lt;AC5),"T","F")</f>
-        <v>T</v>
-      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -27258,44 +30390,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
-      <c r="W6">
+      <c r="R6">
         <v>0.63369111091964603</v>
       </c>
-      <c r="X6">
+      <c r="S6">
         <v>0.96662241588236597</v>
       </c>
-      <c r="Y6" s="2" t="b">
+      <c r="T6" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="3"/>
-        <v>3.9004102721372082E-3</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="4"/>
-        <v>-0.33293130496271994</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="5"/>
-        <v>-0.33934747986038566</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="6"/>
-        <v>-0.32651513006505423</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE6" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -27335,44 +30444,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Q7" s="2">
         <v>4</v>
       </c>
-      <c r="W7">
+      <c r="R7">
         <v>0.62345306215595397</v>
       </c>
-      <c r="X7">
+      <c r="S7">
         <v>0.96827016708342895</v>
       </c>
-      <c r="Y7" s="2" t="b">
+      <c r="T7" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>3.9084581801217639E-3</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="4"/>
-        <v>-0.34481710492747497</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="5"/>
-        <v>-0.35124651863377526</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="6"/>
-        <v>-0.33838769122117468</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE7" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -27412,44 +30498,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V8" s="2">
+      <c r="Q8" s="2">
         <v>5</v>
       </c>
-      <c r="W8">
+      <c r="R8">
         <v>0.67388037381239796</v>
       </c>
-      <c r="X8">
+      <c r="S8">
         <v>0.57359213254139496</v>
       </c>
-      <c r="Y8" s="2" t="b">
+      <c r="T8" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="3"/>
-        <v>5.1690442045896918E-3</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="4"/>
-        <v>0.100288241271003</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="5"/>
-        <v>9.1785163554452959E-2</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="6"/>
-        <v>0.10879131898755304</v>
-      </c>
-      <c r="AD8" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE8" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -27489,44 +30552,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V9" s="2">
+      <c r="Q9" s="2">
         <v>6</v>
       </c>
-      <c r="W9">
+      <c r="R9">
         <v>0.50847163133432005</v>
       </c>
-      <c r="X9">
+      <c r="S9">
         <v>0.42601887079835798</v>
       </c>
-      <c r="Y9" s="2" t="b">
+      <c r="T9" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z9">
-        <f t="shared" si="3"/>
-        <v>5.3339753626193984E-3</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="4"/>
-        <v>8.2452760535962066E-2</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="5"/>
-        <v>7.3678371064453158E-2</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="6"/>
-        <v>9.1227150007470975E-2</v>
-      </c>
-      <c r="AD9" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE9" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -27566,44 +30606,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Q10" s="2">
         <v>7</v>
       </c>
-      <c r="W10">
+      <c r="R10">
         <v>0.50452023329263196</v>
       </c>
-      <c r="X10">
+      <c r="S10">
         <v>0.42263777444553802</v>
       </c>
-      <c r="Y10" s="2" t="b">
+      <c r="T10" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="3"/>
-        <v>5.3314916418612497E-3</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="4"/>
-        <v>8.1882458847093942E-2</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="5"/>
-        <v>7.3112155096232187E-2</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="6"/>
-        <v>9.0652762597955697E-2</v>
-      </c>
-      <c r="AD10" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE10" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -27643,44 +30660,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V11" s="2">
+      <c r="Q11" s="2">
         <v>8</v>
       </c>
-      <c r="W11" s="17">
+      <c r="R11" s="17">
         <v>0.403105371593171</v>
       </c>
-      <c r="X11">
+      <c r="S11">
         <v>0.42203947450206603</v>
       </c>
-      <c r="Y11" s="2" t="b">
+      <c r="T11" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="3"/>
-        <v>5.280190021778629E-3</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="4"/>
-        <v>-1.8934102908895023E-2</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="5"/>
-        <v>-2.7620015494720866E-2</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="6"/>
-        <v>-1.0248190323069178E-2</v>
-      </c>
-      <c r="AD11" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE11" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -27720,44 +30714,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Q12" s="2">
         <v>9</v>
       </c>
-      <c r="W12">
+      <c r="R12">
         <v>0.410621526432212</v>
       </c>
-      <c r="X12">
+      <c r="S12">
         <v>0.43475321260715499</v>
       </c>
-      <c r="Y12" s="2" t="b">
+      <c r="T12" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="3"/>
-        <v>5.297710010353068E-3</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="4"/>
-        <v>-2.413168617494299E-2</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="5"/>
-        <v>-3.2846419141973789E-2</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="6"/>
-        <v>-1.5416953207912193E-2</v>
-      </c>
-      <c r="AD12" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE12" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -27797,44 +30768,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V13" s="2">
+      <c r="Q13" s="2">
         <v>10</v>
       </c>
-      <c r="W13">
+      <c r="R13">
         <v>0.41579820200499901</v>
       </c>
-      <c r="X13" s="17">
+      <c r="S13" s="17">
         <v>0.39895250267980398</v>
       </c>
-      <c r="Y13" s="2" t="b">
+      <c r="T13" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z13">
-        <f t="shared" si="3"/>
-        <v>5.2701868751541233E-3</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="4"/>
-        <v>1.6845699325195029E-2</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="5"/>
-        <v>8.1762419155664966E-3</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="6"/>
-        <v>2.551515673482356E-2</v>
-      </c>
-      <c r="AD13" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE13" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F14" s="2">
         <v>11</v>
       </c>
@@ -27862,44 +30810,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V14" s="2">
+      <c r="Q14" s="2">
         <v>11</v>
       </c>
-      <c r="W14">
+      <c r="R14">
         <v>0.40844452834124401</v>
       </c>
-      <c r="X14">
+      <c r="S14">
         <v>0.40892040454801598</v>
       </c>
-      <c r="Y14" s="2" t="b">
+      <c r="T14" s="2" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z14">
-        <f t="shared" si="3"/>
-        <v>5.2735848324419214E-3</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="4"/>
-        <v>-4.7587620677197462E-4</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="5"/>
-        <v>-9.1509232561389348E-3</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="6"/>
-        <v>8.1991708425949855E-3</v>
-      </c>
-      <c r="AD14" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE14" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F15" s="2">
         <v>12</v>
       </c>
@@ -27927,88 +30852,319 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V15" s="2">
+      <c r="Q15" s="2">
         <v>12</v>
       </c>
-      <c r="W15">
+      <c r="R15">
         <v>0.41706624327446501</v>
       </c>
-      <c r="X15">
+      <c r="S15">
         <v>0.41706624327446501</v>
       </c>
-      <c r="Y15" s="2" t="b">
+      <c r="T15" s="2" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="3"/>
-        <v>5.2895013089627662E-3</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="5"/>
-        <v>-8.7012296532437503E-3</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="6"/>
-        <v>8.7012296532437503E-3</v>
-      </c>
-      <c r="AD15" s="28">
-        <v>1.645</v>
-      </c>
-      <c r="AE15" t="str">
-        <f t="shared" si="7"/>
-        <v>T</v>
-      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="13"/>
+    <row r="18" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="13"/>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+    <row r="19" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19"/>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="K19"/>
+      <c r="L19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.63677725267128893</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0.61812278523651554</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="31">
+        <v>0.6777768659205794</v>
+      </c>
+      <c r="M21" s="31">
+        <v>0.63361646729795218</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="31">
+        <v>0.61888722386781947</v>
+      </c>
+      <c r="S21" s="31">
+        <v>0.52979343246085697</v>
+      </c>
+      <c r="T21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="31">
+        <v>6.5480995215794771E-2</v>
+      </c>
+      <c r="H22" s="31">
+        <v>2.1261679634512521E-2</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0.11966011557146623</v>
+      </c>
+      <c r="M22" s="31">
+        <v>6.5709521024606751E-3</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="31">
+        <v>7.3440419295321663E-2</v>
+      </c>
+      <c r="S22" s="31">
+        <v>1.453604984692221E-2</v>
+      </c>
+      <c r="T22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="24" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="H24" s="9"/>
+    <row r="23" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="31">
+        <v>12</v>
+      </c>
+      <c r="H23" s="31">
+        <v>12</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="31">
+        <v>12</v>
+      </c>
+      <c r="M23" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="31">
+        <v>12</v>
+      </c>
+      <c r="S23" s="31">
+        <v>12</v>
+      </c>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F24" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="31">
+        <v>11</v>
+      </c>
+      <c r="H24" s="31">
+        <v>11</v>
+      </c>
       <c r="I24" s="9"/>
+      <c r="K24" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="31">
+        <v>11</v>
+      </c>
+      <c r="M24" s="31">
+        <v>11</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="Q24" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="31">
+        <v>11</v>
+      </c>
+      <c r="S24" s="31">
+        <v>11</v>
+      </c>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="31">
+        <v>3.0797658671097783</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="K25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="31">
+        <v>18.210468392648334</v>
+      </c>
+      <c r="M25" s="31"/>
+      <c r="Q25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="31">
+        <v>5.0522955045363691</v>
+      </c>
+      <c r="S25" s="31"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="31">
+        <v>3.7568044584520677E-2</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="K26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="31">
+        <v>1.7154213832749195E-5</v>
+      </c>
+      <c r="M26" s="31"/>
+      <c r="Q26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="31">
+        <v>6.1524898211468958E-3</v>
+      </c>
+      <c r="S26" s="31"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="32">
+        <v>2.8179304699530876</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="K27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="32">
+        <v>2.8179304699530876</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="Q27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="32">
+        <v>2.8179304699530876</v>
+      </c>
+      <c r="S27" s="32"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="I28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J23:K35">
@@ -28019,9 +31175,9 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:T2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
@@ -28031,12 +31187,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751C921E-2DC6-4147-8CBF-9AD553B6FB26}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28045,12 +31201,16 @@
     <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.21875" style="2" customWidth="1"/>
-    <col min="11" max="19" width="9" style="2"/>
+    <col min="11" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="28.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9" style="2"/>
+    <col min="21" max="21" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -28196,10 +31356,7 @@
         <f>H4&lt;=G4</f>
         <v>0</v>
       </c>
-      <c r="J4" t="e">
-        <f>SQRT((G4*(1-G4)/20640)+(H4*(1-H4)/20640))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="J4"/>
       <c r="O4" s="2">
         <v>1</v>
       </c>
@@ -28594,86 +31751,616 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14"/>
       <c r="J14" s="10"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="Q14"/>
-      <c r="R14"/>
+      <c r="N14" s="34"/>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15"/>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="Q15"/>
-      <c r="R15"/>
+      <c r="N15" s="34"/>
+      <c r="O15"/>
+      <c r="P15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>33</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="35"/>
+      <c r="V16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0.98101060335806323</v>
+      </c>
+      <c r="H17" s="31">
+        <v>0.80562483537499996</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="U17" s="2"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="31">
+        <v>0.93172941787499985</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>0.83496718599999986</v>
+      </c>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="31">
+        <v>7.061811257683763E-2</v>
+      </c>
+      <c r="H18" s="31">
+        <v>4.6147798612870182E-2</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="13"/>
-      <c r="U18" s="2"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="31">
+        <v>2.6490815457449912E-2</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>1.8665156165961809E-2</v>
+      </c>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="31">
+        <v>0.7462150104399079</v>
+      </c>
+      <c r="W18" s="31">
+        <v>0.65747408525000006</v>
+      </c>
     </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="31">
+        <v>8</v>
+      </c>
+      <c r="H19" s="31">
+        <v>8</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>8</v>
+      </c>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" s="31">
+        <v>1.7659588936625528E-2</v>
+      </c>
+      <c r="W19" s="31">
+        <v>1.6648608674501148E-2</v>
+      </c>
     </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="31">
+        <v>7</v>
+      </c>
+      <c r="H20" s="31">
+        <v>7</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="31">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>7</v>
+      </c>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="31">
+        <v>8</v>
+      </c>
+      <c r="W20" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="31">
+        <v>1.5302596158323121</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="31">
+        <v>1.4192656746027739</v>
+      </c>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="31">
+        <v>7</v>
+      </c>
+      <c r="W21" s="31">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="31">
+        <v>0.29419542179904373</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="31">
+        <v>0.32783375835681056</v>
+      </c>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" s="31">
+        <v>1.0607246095989262</v>
+      </c>
+      <c r="W22" s="31"/>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="32">
+        <v>3.7870435399280704</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="32">
+        <v>3.7870435399280704</v>
+      </c>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="31">
+        <v>0.47000625975472504</v>
+      </c>
+      <c r="W23" s="31"/>
+    </row>
+    <row r="24" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="32">
+        <v>3.7870435399280704</v>
+      </c>
+      <c r="W24" s="32"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="2"/>
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28"/>
+      <c r="O28"/>
+      <c r="P28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29"/>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W29" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="31">
+        <v>0.93172941787499985</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>0.83496718599999986</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="31">
+        <v>0.7462150104399079</v>
+      </c>
+      <c r="W30" s="31">
+        <v>0.65747408525000006</v>
+      </c>
+    </row>
+    <row r="31" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="31">
+        <v>0.98101060335806323</v>
+      </c>
+      <c r="H31" s="31">
+        <v>0.80562483537499996</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="31">
+        <v>2.6490815457449912E-2</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>1.8665156165961809E-2</v>
+      </c>
+      <c r="U31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" s="31">
+        <v>1.7659588936625528E-2</v>
+      </c>
+      <c r="W31" s="31">
+        <v>1.6648608674501148E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="31">
+        <v>7.061811257683763E-2</v>
+      </c>
+      <c r="H32" s="31">
+        <v>4.6147798612870182E-2</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>8</v>
+      </c>
+      <c r="U32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="31">
+        <v>8</v>
+      </c>
+      <c r="W32" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="F33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="31">
+        <v>8</v>
+      </c>
+      <c r="H33" s="31">
+        <v>8</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="31">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>7</v>
+      </c>
+      <c r="U33" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="31">
+        <v>7</v>
+      </c>
+      <c r="W33" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="F34" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="31">
+        <v>7</v>
+      </c>
+      <c r="H34" s="31">
+        <v>7</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="31">
+        <v>1.4192656746027739</v>
+      </c>
+      <c r="Q34" s="31"/>
+      <c r="U34" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="V34" s="31">
+        <v>1.0607246095989262</v>
+      </c>
+      <c r="W34" s="31"/>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="F35" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="31">
+        <v>1.5302596158323121</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="31">
+        <v>0.32783375835681056</v>
+      </c>
+      <c r="Q35" s="31"/>
+      <c r="U35" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="31">
+        <v>0.47000625975472504</v>
+      </c>
+      <c r="W35" s="31"/>
+    </row>
+    <row r="36" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>0.40092401</v>
       </c>
+      <c r="F36" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="31">
+        <v>0.29419542179904373</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="O36" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" s="32">
+        <v>2.7849301175044401</v>
+      </c>
+      <c r="Q36" s="32"/>
+      <c r="U36" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36" s="32">
+        <v>2.7849301175044401</v>
+      </c>
+      <c r="W36" s="32"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="2">
         <v>8</v>
       </c>
       <c r="D37" s="2">
         <v>0.38762119</v>
       </c>
+      <c r="F37" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="32">
+        <v>2.7849301175044401</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="Q37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>2</v>
       </c>
@@ -28681,15 +32368,18 @@
         <v>0.37119176999999998</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>4</v>
       </c>
       <c r="D39" s="2">
         <v>4.1656829999999999E-2</v>
       </c>
+      <c r="I39" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>3</v>
       </c>
@@ -28697,7 +32387,7 @@
         <v>3.088511E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>7</v>
       </c>
@@ -28705,7 +32395,7 @@
         <v>2.9280049999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>5</v>
       </c>
@@ -28713,7 +32403,7 @@
         <v>2.4889410000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C43" s="2">
         <v>6</v>
       </c>
